--- a/TurtleBomb_개발일정.xlsx
+++ b/TurtleBomb_개발일정.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Desktop\한국산업기술대학교\2017 4학년 2학기\졸업작품\Turtle Bomb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9110" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9110" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="프로토타입 개발 일정(~12.25)" sheetId="8" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="2차 개발 일정(~1.31)" sheetId="9" r:id="rId3"/>
     <sheet name="3차 개발 일정(~2.12)" sheetId="10" r:id="rId4"/>
     <sheet name="4차 개발 일정(~3.2)" sheetId="11" r:id="rId5"/>
-    <sheet name="장동필" sheetId="1" r:id="rId6"/>
-    <sheet name="김성일" sheetId="4" r:id="rId7"/>
-    <sheet name="송형종" sheetId="5" r:id="rId8"/>
+    <sheet name="5차 개발 일정(~3.12)" sheetId="12" r:id="rId6"/>
+    <sheet name="장동필" sheetId="1" r:id="rId7"/>
+    <sheet name="김성일" sheetId="4" r:id="rId8"/>
+    <sheet name="송형종" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="271">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,6 +1054,62 @@
   </si>
   <si>
     <t>송형종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲 테마 레벨 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Spawn_Table 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Table 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Table 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Spawn_Table csv 파일로 데이터 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Table csv 파일로 데이터 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Table csv 파일로 데이터 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린과 충돌 전 공격 AI/애니 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-03 (토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-12 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄 발차기 시, 폭탄 굴러가도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 죽음, 공격, 보스 등장, 공격 사운드 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,12 +1273,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1683,7 +1734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,18 +1891,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1867,60 +1909,12 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1996,32 +1990,103 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3004,7 +3069,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3044,348 +3109,348 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="61">
-        <v>1</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="87">
+        <v>1</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="69">
-        <v>1</v>
-      </c>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="91">
+        <v>1</v>
+      </c>
+      <c r="H2" s="92" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="71">
+      <c r="A3" s="85">
         <v>2</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="66">
-        <v>1</v>
-      </c>
-      <c r="H3" s="67" t="s">
+      <c r="G3" s="74">
+        <v>1</v>
+      </c>
+      <c r="H3" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="61">
+      <c r="A4" s="87">
         <v>3</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="66">
-        <v>1</v>
-      </c>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="74">
+        <v>1</v>
+      </c>
+      <c r="H4" s="75" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="71">
+      <c r="A5" s="85">
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="66">
-        <v>1</v>
-      </c>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="74">
+        <v>1</v>
+      </c>
+      <c r="H5" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="61">
+      <c r="A6" s="87">
         <v>5</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="72"/>
+      <c r="E6" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="66">
-        <v>1</v>
-      </c>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="71">
+      <c r="A7" s="85">
         <v>6</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="72"/>
+      <c r="E7" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="66">
-        <v>1</v>
-      </c>
-      <c r="H7" s="67" t="s">
+      <c r="G7" s="74">
+        <v>1</v>
+      </c>
+      <c r="H7" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="61">
+      <c r="A8" s="87">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="72" t="s">
+      <c r="D8" s="72"/>
+      <c r="E8" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="66">
-        <v>1</v>
-      </c>
-      <c r="H8" s="67" t="s">
+      <c r="G8" s="74">
+        <v>1</v>
+      </c>
+      <c r="H8" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="71">
+      <c r="A9" s="85">
         <v>8</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="72" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="66">
-        <v>1</v>
-      </c>
-      <c r="H9" s="67" t="s">
+      <c r="G9" s="74">
+        <v>1</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="61">
+      <c r="A10" s="87">
         <v>9</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="66">
-        <v>1</v>
-      </c>
-      <c r="H10" s="67" t="s">
+      <c r="G10" s="74">
+        <v>1</v>
+      </c>
+      <c r="H10" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="71">
+      <c r="A11" s="85">
         <v>10</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="72" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="66">
-        <v>1</v>
-      </c>
-      <c r="H11" s="67" t="s">
+      <c r="G11" s="74">
+        <v>1</v>
+      </c>
+      <c r="H11" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="61">
+      <c r="A12" s="87">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="72" t="s">
+      <c r="D12" s="72"/>
+      <c r="E12" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="66">
-        <v>1</v>
-      </c>
-      <c r="H12" s="67" t="s">
+      <c r="G12" s="74">
+        <v>1</v>
+      </c>
+      <c r="H12" s="75" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="71">
+      <c r="A13" s="85">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="72" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="66">
-        <v>1</v>
-      </c>
-      <c r="H13" s="67" t="s">
+      <c r="G13" s="74">
+        <v>1</v>
+      </c>
+      <c r="H13" s="75" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="61">
+      <c r="A14" s="87">
         <v>13</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="72" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="66">
-        <v>1</v>
-      </c>
-      <c r="H14" s="67" t="s">
+      <c r="G14" s="74">
+        <v>1</v>
+      </c>
+      <c r="H14" s="75" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="71">
+      <c r="A15" s="85">
         <v>14</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="76">
-        <v>1</v>
-      </c>
-      <c r="H15" s="77" t="s">
+      <c r="G15" s="97">
+        <v>1</v>
+      </c>
+      <c r="H15" s="98" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3412,7 +3477,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3453,210 +3518,210 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="51">
-        <v>1</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="87">
+        <v>1</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="54">
-        <v>0.8</v>
-      </c>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="91">
+        <v>1</v>
+      </c>
+      <c r="H2" s="92" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="61">
+      <c r="A3" s="87">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="69">
-        <v>1</v>
-      </c>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="91">
+        <v>1</v>
+      </c>
+      <c r="H3" s="92" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="61">
+      <c r="A4" s="87">
         <v>3</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="66">
-        <v>1</v>
-      </c>
-      <c r="H4" s="70" t="s">
+      <c r="G4" s="74">
+        <v>1</v>
+      </c>
+      <c r="H4" s="92" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="61">
+      <c r="A5" s="87">
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="66">
-        <v>1</v>
-      </c>
-      <c r="H5" s="70" t="s">
+      <c r="G5" s="74">
+        <v>1</v>
+      </c>
+      <c r="H5" s="92" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="51">
+      <c r="A6" s="87">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="55" t="s">
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="92" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="61">
+      <c r="A7" s="87">
         <v>6</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="66">
-        <v>1</v>
-      </c>
-      <c r="H7" s="70" t="s">
+      <c r="G7" s="74">
+        <v>1</v>
+      </c>
+      <c r="H7" s="92" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="51">
+      <c r="A8" s="87">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="55" t="s">
+      <c r="G8" s="74">
+        <v>1</v>
+      </c>
+      <c r="H8" s="92" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="61">
+      <c r="A9" s="87">
         <v>8</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="66">
-        <v>1</v>
-      </c>
-      <c r="H9" s="67" t="s">
+      <c r="G9" s="74">
+        <v>1</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3664,7 +3729,7 @@
       <c r="A10" s="51">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="53" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3673,421 +3738,421 @@
       <c r="D10" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="54">
         <v>0</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="61">
+      <c r="A11" s="87">
         <v>10</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="66">
-        <v>1</v>
-      </c>
-      <c r="H11" s="67" t="s">
+      <c r="G11" s="74">
+        <v>1</v>
+      </c>
+      <c r="H11" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="61">
+      <c r="A12" s="87">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="66">
-        <v>1</v>
-      </c>
-      <c r="H12" s="67" t="s">
+      <c r="G12" s="74">
+        <v>1</v>
+      </c>
+      <c r="H12" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="61">
+      <c r="A13" s="87">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="66">
-        <v>1</v>
-      </c>
-      <c r="H13" s="67" t="s">
+      <c r="G13" s="74">
+        <v>1</v>
+      </c>
+      <c r="H13" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="61">
+      <c r="A14" s="87">
         <v>13</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="66">
-        <v>1</v>
-      </c>
-      <c r="H14" s="67" t="s">
+      <c r="G14" s="74">
+        <v>1</v>
+      </c>
+      <c r="H14" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="61">
+      <c r="A15" s="87">
         <v>14</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="64" t="s">
+      <c r="C15" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="66">
-        <v>1</v>
-      </c>
-      <c r="H15" s="67" t="s">
+      <c r="G15" s="74">
+        <v>1</v>
+      </c>
+      <c r="H15" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="61">
+      <c r="A16" s="87">
         <v>15</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="66">
-        <v>1</v>
-      </c>
-      <c r="H16" s="67" t="s">
+      <c r="G16" s="74">
+        <v>1</v>
+      </c>
+      <c r="H16" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="61">
+      <c r="A17" s="87">
         <v>16</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="64" t="s">
+      <c r="C17" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="66">
-        <v>1</v>
-      </c>
-      <c r="H17" s="67" t="s">
+      <c r="G17" s="74">
+        <v>1</v>
+      </c>
+      <c r="H17" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="61">
+      <c r="A18" s="87">
         <v>17</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="64" t="s">
+      <c r="C18" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="66">
-        <v>1</v>
-      </c>
-      <c r="H18" s="67" t="s">
+      <c r="G18" s="74">
+        <v>1</v>
+      </c>
+      <c r="H18" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="61">
+      <c r="A19" s="87">
         <v>18</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="64" t="s">
+      <c r="C19" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="66">
-        <v>1</v>
-      </c>
-      <c r="H19" s="67" t="s">
+      <c r="G19" s="74">
+        <v>1</v>
+      </c>
+      <c r="H19" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="61">
+      <c r="A20" s="87">
         <v>19</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="64" t="s">
+      <c r="C20" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="66">
-        <v>1</v>
-      </c>
-      <c r="H20" s="67" t="s">
+      <c r="G20" s="74">
+        <v>1</v>
+      </c>
+      <c r="H20" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="61">
+      <c r="A21" s="87">
         <v>20</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="64" t="s">
+      <c r="C21" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="66">
-        <v>1</v>
-      </c>
-      <c r="H21" s="67" t="s">
+      <c r="G21" s="74">
+        <v>1</v>
+      </c>
+      <c r="H21" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="61">
+      <c r="A22" s="87">
         <v>21</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="64" t="s">
+      <c r="C22" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="66">
-        <v>1</v>
-      </c>
-      <c r="H22" s="67" t="s">
+      <c r="G22" s="74">
+        <v>1</v>
+      </c>
+      <c r="H22" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="61">
+      <c r="A23" s="87">
         <v>22</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="64" t="s">
+      <c r="C23" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="66">
-        <v>1</v>
-      </c>
-      <c r="H23" s="67" t="s">
+      <c r="G23" s="74">
+        <v>1</v>
+      </c>
+      <c r="H23" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="61">
+      <c r="A24" s="87">
         <v>23</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="66">
-        <v>1</v>
-      </c>
-      <c r="H24" s="67" t="s">
+      <c r="G24" s="74">
+        <v>1</v>
+      </c>
+      <c r="H24" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="61">
+      <c r="A25" s="87">
         <v>24</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="64" t="s">
+      <c r="C25" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="66">
-        <v>1</v>
-      </c>
-      <c r="H25" s="67" t="s">
+      <c r="G25" s="74">
+        <v>1</v>
+      </c>
+      <c r="H25" s="75" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C15:C16 C10:D12 C9 C19:C24 C25:D1048576 C1:D8">
-    <cfRule type="cellIs" dxfId="67" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="25" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E1:F12 E19:F1048576">
-    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="70" priority="23" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4104,15 +4169,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D14 D15:D24">
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F14">
-    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="67" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4139,15 +4204,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="61" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="64" priority="9" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4174,15 +4239,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4232,8 +4297,8 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4249,1097 +4314,1097 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="67" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="87">
-        <v>1</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79" t="s">
+      <c r="C2" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="81">
+      <c r="H2" s="74">
+        <v>1</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="85">
+        <v>2</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="74">
+        <v>1</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="85">
+        <v>3</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="74">
+        <v>1</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="85">
+        <v>4</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="85">
+        <v>5</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="74">
+        <v>1</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="85">
+        <v>6</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="74">
+        <v>1</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="85">
+        <v>7</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="74">
+        <v>1</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="85">
+        <v>8</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="74">
+        <v>1</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="85">
+        <v>9</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="74">
+        <v>1</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="85">
+        <v>10</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="74">
+        <v>1</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="85">
+        <v>11</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="74">
+        <v>1</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="68">
+        <v>12</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="85">
+        <v>13</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="74">
+        <v>1</v>
+      </c>
+      <c r="I14" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="85">
+        <v>14</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="74">
+        <v>1</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="85">
+        <v>15</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="74">
+        <v>1</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="68">
+        <v>16</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="68">
+        <v>17</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="62">
         <v>0</v>
       </c>
-      <c r="I2" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="87">
-        <v>2</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="83" t="s">
+      <c r="I18" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="68">
+        <v>18</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G19" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H19" s="62">
         <v>0</v>
       </c>
-      <c r="I3" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="87">
-        <v>3</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="83" t="s">
+      <c r="I19" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="85">
+        <v>19</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="74">
+        <v>1</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="85">
+        <v>20</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="74">
+        <v>1</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="85">
+        <v>21</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="74">
+        <v>1</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="85">
+        <v>22</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="81">
-        <v>0</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="71">
-        <v>4</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="72" t="s">
+      <c r="G23" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="74">
+        <v>1</v>
+      </c>
+      <c r="I23" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="85">
+        <v>23</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="66">
-        <v>1</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="71">
-        <v>5</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="72" t="s">
+      <c r="G24" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="74">
+        <v>1</v>
+      </c>
+      <c r="I24" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="85">
+        <v>24</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="66">
-        <v>1</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="71">
-        <v>6</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="72" t="s">
+      <c r="G25" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="74">
+        <v>1</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="85">
+        <v>25</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="66">
-        <v>1</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="71">
-        <v>7</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="72" t="s">
+      <c r="G26" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="74">
+        <v>1</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="85">
+        <v>26</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="66">
-        <v>1</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="71">
-        <v>8</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="66">
-        <v>1</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="87">
-        <v>9</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="71">
-        <v>10</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="66">
-        <v>1</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="87">
-        <v>11</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="81">
-        <v>0</v>
-      </c>
-      <c r="I12" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="87">
-        <v>12</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="81">
-        <v>0</v>
-      </c>
-      <c r="I13" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="87">
-        <v>13</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="81">
-        <v>0</v>
-      </c>
-      <c r="I14" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="87">
-        <v>14</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="81">
-        <v>0</v>
-      </c>
-      <c r="I15" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="87">
-        <v>15</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="81">
-        <v>0</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="87">
-        <v>16</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="83" t="s">
+      <c r="G27" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="74">
+        <v>1</v>
+      </c>
+      <c r="I27" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="85">
+        <v>27</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="81">
+      <c r="G28" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="74">
+        <v>1</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="85">
+        <v>28</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="74">
+        <v>1</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="85">
+        <v>29</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="74">
+        <v>1</v>
+      </c>
+      <c r="I30" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="85">
+        <v>30</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="74">
+        <v>1</v>
+      </c>
+      <c r="I31" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="85">
+        <v>31</v>
+      </c>
+      <c r="B32" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="74">
+        <v>1</v>
+      </c>
+      <c r="I32" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="85">
+        <v>32</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="74">
+        <v>1</v>
+      </c>
+      <c r="I33" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="85">
+        <v>33</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="74">
+        <v>1</v>
+      </c>
+      <c r="I34" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="85">
+        <v>34</v>
+      </c>
+      <c r="B35" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="74">
+        <v>1</v>
+      </c>
+      <c r="I35" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="85">
+        <v>35</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" s="74">
+        <v>1</v>
+      </c>
+      <c r="I36" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="85">
+        <v>36</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="74">
+        <v>1</v>
+      </c>
+      <c r="I37" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="68">
+        <v>38</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="62">
         <v>0.5</v>
       </c>
-      <c r="I17" s="82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="87">
-        <v>17</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="83" t="s">
+      <c r="I38" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="68">
+        <v>39</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="81">
-        <v>0</v>
-      </c>
-      <c r="I18" s="82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="87">
-        <v>18</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="83" t="s">
+      <c r="G39" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="68">
+        <v>40</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="81">
-        <v>0</v>
-      </c>
-      <c r="I19" s="82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="71">
-        <v>19</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="66">
-        <v>1</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="71">
-        <v>20</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="66">
-        <v>1</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="71">
-        <v>21</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="66">
-        <v>1</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="71">
-        <v>22</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" s="66">
-        <v>1</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="71">
-        <v>23</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="66">
-        <v>1</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="71">
-        <v>24</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="66">
-        <v>1</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="71">
-        <v>25</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="66">
-        <v>1</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="71">
-        <v>26</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="66">
-        <v>1</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="71">
-        <v>27</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="66">
-        <v>1</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="71">
-        <v>28</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="66">
-        <v>1</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="71">
-        <v>29</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="66">
-        <v>1</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="71">
-        <v>30</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="66">
-        <v>1</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="87">
-        <v>31</v>
-      </c>
-      <c r="B32" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="81">
-        <v>0</v>
-      </c>
-      <c r="I32" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="87">
-        <v>32</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" s="81">
-        <v>0</v>
-      </c>
-      <c r="I33" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="87">
-        <v>33</v>
-      </c>
-      <c r="B34" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="81">
-        <v>0</v>
-      </c>
-      <c r="I34" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="87">
-        <v>34</v>
-      </c>
-      <c r="B35" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="81">
-        <v>0</v>
-      </c>
-      <c r="I35" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="87">
-        <v>35</v>
-      </c>
-      <c r="B36" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H36" s="81">
-        <v>0</v>
-      </c>
-      <c r="I36" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="87">
-        <v>36</v>
-      </c>
-      <c r="B37" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37" s="81">
-        <v>0</v>
-      </c>
-      <c r="I37" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="87">
-        <v>38</v>
-      </c>
-      <c r="B38" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H38" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="87">
-        <v>39</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H39" s="81">
+      <c r="G40" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="62">
         <v>0.1</v>
       </c>
-      <c r="I39" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="87">
-        <v>40</v>
-      </c>
-      <c r="B40" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="H40" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="I40" s="82" t="s">
+      <c r="I40" s="63" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C26:D28 C33:D33 D32 C41:E1048576 C23:D23 C1:E19 C36:D40 E32:E40">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F23:F1048576">
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="58" priority="52" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5356,10 +5421,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E25 E24:E29">
-    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5374,63 +5439,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29">
-    <cfRule type="cellIs" dxfId="46" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D30">
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:D31 C32">
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E22">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5457,18 +5522,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5484,8 +5549,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5501,930 +5566,930 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="67" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="87">
-        <v>1</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79" t="s">
+      <c r="C2" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I2" s="82" t="s">
+      <c r="H2" s="74">
+        <v>1</v>
+      </c>
+      <c r="I2" s="75" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="87">
+      <c r="A3" s="85">
         <v>2</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79" t="s">
+      <c r="C3" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H3" s="74">
+        <v>1</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="85">
+        <v>3</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="74">
+        <v>1</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="85">
+        <v>4</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A6" s="85">
+        <v>5</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="74">
+        <v>1</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="85">
+        <v>6</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="74">
+        <v>1</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="85">
+        <v>7</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="74">
+        <v>1</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="85">
+        <v>8</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="74">
+        <v>1</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="62">
         <v>0.5</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I10" s="63" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="87">
-        <v>3</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="83" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="85">
+        <v>10</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="74">
+        <v>1</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="85">
+        <v>11</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="74">
+        <v>1</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="85">
+        <v>12</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="74">
+        <v>1</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="85">
+        <v>13</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="74">
+        <v>1</v>
+      </c>
+      <c r="I14" s="75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="85">
+        <v>14</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="74">
+        <v>1</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="85">
+        <v>15</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G16" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H16" s="74">
+        <v>1</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="85">
+        <v>16</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="74">
+        <v>1</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="85">
+        <v>17</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="74">
+        <v>1</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="68">
+        <v>18</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="62">
         <v>0</v>
       </c>
-      <c r="I4" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="87">
-        <v>4</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="83" t="s">
+      <c r="I19" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="68">
+        <v>19</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G20" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="62">
+        <v>0</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="68">
+        <v>20</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="62">
+        <v>0</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="85">
+        <v>21</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="81">
-        <v>0</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="87">
-        <v>5</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="83" t="s">
+      <c r="H22" s="74">
+        <v>1</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="85">
+        <v>22</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G23" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="81">
-        <v>1</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="87">
-        <v>6</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="83" t="s">
+      <c r="H23" s="74">
+        <v>1</v>
+      </c>
+      <c r="I23" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="85">
+        <v>23</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G24" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="74">
+        <v>1</v>
+      </c>
+      <c r="I24" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="85">
+        <v>24</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="74">
+        <v>1</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="85">
+        <v>25</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="74">
+        <v>1</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="85">
+        <v>26</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="74">
+        <v>1</v>
+      </c>
+      <c r="I27" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="85">
+        <v>27</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="74">
+        <v>1</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="85">
+        <v>28</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="74">
+        <v>1</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="68">
+        <v>29</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="87">
-        <v>7</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="83" t="s">
+      <c r="H30" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="68">
+        <v>30</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="81">
-        <v>0</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="87">
-        <v>8</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="83" t="s">
+      <c r="H31" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="85">
+        <v>31</v>
+      </c>
+      <c r="B32" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G32" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="87">
-        <v>9</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="83" t="s">
+      <c r="H32" s="74">
+        <v>1</v>
+      </c>
+      <c r="I32" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="85">
+        <v>32</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="72"/>
+      <c r="F33" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G33" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H10" s="81">
-        <v>0</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="87">
-        <v>10</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="81">
-        <v>1</v>
-      </c>
-      <c r="I11" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="87">
-        <v>11</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="81">
-        <v>1</v>
-      </c>
-      <c r="I12" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="87">
-        <v>12</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="H13" s="66">
-        <v>1</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="87">
-        <v>13</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="66">
-        <v>1</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="87">
-        <v>14</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="H15" s="66">
-        <v>1</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="87">
-        <v>15</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="81">
-        <v>1</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="87">
-        <v>16</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="81">
-        <v>1</v>
-      </c>
-      <c r="I17" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="87">
-        <v>17</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="72" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" s="66">
-        <v>1</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="87">
-        <v>18</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="81">
-        <v>0</v>
-      </c>
-      <c r="I19" s="82" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="87">
-        <v>19</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="81">
-        <v>0</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="87">
-        <v>20</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H21" s="81">
-        <v>0</v>
-      </c>
-      <c r="I21" s="82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="87">
-        <v>21</v>
-      </c>
-      <c r="B22" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22" s="93">
-        <v>1</v>
-      </c>
-      <c r="I22" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="87">
-        <v>22</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="93">
-        <v>1</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="87">
-        <v>23</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="93">
-        <v>1</v>
-      </c>
-      <c r="I24" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="87">
-        <v>24</v>
-      </c>
-      <c r="B25" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H25" s="93">
-        <v>1</v>
-      </c>
-      <c r="I25" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="87">
-        <v>25</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F26" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="93">
-        <v>1</v>
-      </c>
-      <c r="I26" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="87">
-        <v>26</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H27" s="93">
-        <v>1</v>
-      </c>
-      <c r="I27" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="87">
-        <v>27</v>
-      </c>
-      <c r="B28" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F28" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="93">
-        <v>1</v>
-      </c>
-      <c r="I28" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="87">
-        <v>28</v>
-      </c>
-      <c r="B29" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="93">
-        <v>1</v>
-      </c>
-      <c r="I29" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="87">
-        <v>29</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="87">
-        <v>30</v>
-      </c>
-      <c r="B31" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" s="81">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="87">
-        <v>31</v>
-      </c>
-      <c r="B32" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="G32" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="81">
-        <v>0</v>
-      </c>
-      <c r="I32" s="82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="87">
-        <v>32</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="G33" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="81">
-        <v>0</v>
-      </c>
-      <c r="I33" s="82" t="s">
+      <c r="H33" s="74">
+        <v>1</v>
+      </c>
+      <c r="I33" s="75" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:D25 D22:D24 C34:E1048576 C28:D31 E22:E31 C1:E14 C16:E21">
-    <cfRule type="cellIs" dxfId="31" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F1048576 F1:F4 F7:F13 F25:F31 F16:F22">
-    <cfRule type="containsText" dxfId="29" priority="55" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="28" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27">
-    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="48" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6451,69 +6516,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6540,7 +6605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6551,6 +6616,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6570,826 +6638,826 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="67" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="104">
-        <v>1</v>
-      </c>
-      <c r="B2" s="105" t="s">
+      <c r="A2" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106" t="s">
+      <c r="C2" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="108">
-        <v>1</v>
-      </c>
-      <c r="I2" s="109" t="s">
+      <c r="H2" s="74">
+        <v>1</v>
+      </c>
+      <c r="I2" s="75" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A3" s="104">
+      <c r="A3" s="85">
         <v>2</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="110" t="s">
+      <c r="C3" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="108">
-        <v>1</v>
-      </c>
-      <c r="I3" s="109" t="s">
+      <c r="H3" s="74">
+        <v>1</v>
+      </c>
+      <c r="I3" s="75" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A4" s="104">
+      <c r="A4" s="85">
         <v>3</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="110" t="s">
+      <c r="C4" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="108">
-        <v>1</v>
-      </c>
-      <c r="I4" s="109" t="s">
+      <c r="H4" s="74">
+        <v>1</v>
+      </c>
+      <c r="I4" s="75" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A5" s="104">
+      <c r="A5" s="85">
         <v>4</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110" t="s">
+      <c r="C5" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="108">
-        <v>1</v>
-      </c>
-      <c r="I5" s="109" t="s">
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="104">
+      <c r="A6" s="85">
         <v>5</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="110" t="s">
+      <c r="C6" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H6" s="108">
-        <v>1</v>
-      </c>
-      <c r="I6" s="109" t="s">
+      <c r="H6" s="74">
+        <v>1</v>
+      </c>
+      <c r="I6" s="75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="87">
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="85">
         <v>6</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="83" t="s">
+      <c r="C7" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H7" s="81">
-        <v>0.7</v>
-      </c>
-      <c r="I7" s="82" t="s">
+      <c r="H7" s="74">
+        <v>1</v>
+      </c>
+      <c r="I7" s="75" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="87">
+      <c r="A8" s="68">
         <v>7</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="83" t="s">
+      <c r="C8" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="62">
         <v>0</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="63" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="87">
+      <c r="A9" s="68">
         <v>8</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="83" t="s">
+      <c r="C9" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="62">
         <v>0.2</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="63" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="104">
+      <c r="A10" s="85">
         <v>9</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107" t="s">
+      <c r="C10" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="108">
-        <v>1</v>
-      </c>
-      <c r="I10" s="109" t="s">
+      <c r="H10" s="74">
+        <v>1</v>
+      </c>
+      <c r="I10" s="75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="104">
+    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="85">
         <v>10</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107" t="s">
+      <c r="C11" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="108">
-        <v>1</v>
-      </c>
-      <c r="I11" s="109" t="s">
+      <c r="H11" s="74">
+        <v>1</v>
+      </c>
+      <c r="I11" s="75" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="104">
+    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="85">
         <v>11</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106" t="s">
+      <c r="C12" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="107" t="s">
+      <c r="F12" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="107" t="s">
+      <c r="G12" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="108">
-        <v>1</v>
-      </c>
-      <c r="I12" s="109" t="s">
+      <c r="H12" s="74">
+        <v>1</v>
+      </c>
+      <c r="I12" s="75" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="87">
+      <c r="A13" s="68">
         <v>12</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="83" t="s">
+      <c r="C13" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="62">
         <v>0</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="63" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="87">
+      <c r="A14" s="68">
         <v>13</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="83" t="s">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="62">
         <v>0</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="63" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="87">
+      <c r="A15" s="68">
         <v>14</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="83" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="62">
         <v>0</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="63" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.45">
-      <c r="A16" s="87">
+      <c r="A16" s="68">
         <v>15</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="89" t="s">
+      <c r="D16" s="60"/>
+      <c r="E16" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="62">
         <v>0</v>
       </c>
-      <c r="I16" s="82" t="s">
+      <c r="I16" s="63" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="87">
+      <c r="A17" s="68">
         <v>16</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="83" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="G17" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="62">
         <v>0</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="63" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="87">
+      <c r="A18" s="68">
         <v>17</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="83" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="62">
         <v>0</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="63" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="87">
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="68">
         <v>18</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="83" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="62">
         <v>0</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="I19" s="63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="87">
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="68">
         <v>19</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="83" t="s">
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H20" s="81">
+      <c r="H20" s="62">
         <v>0</v>
       </c>
-      <c r="I20" s="82" t="s">
+      <c r="I20" s="63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="87">
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="68">
         <v>20</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="83" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H21" s="81">
+      <c r="H21" s="62">
         <v>0</v>
       </c>
-      <c r="I21" s="82" t="s">
+      <c r="I21" s="63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="87">
+    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="68">
         <v>21</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="83" t="s">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="83" t="s">
+      <c r="G22" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="62">
         <v>0</v>
       </c>
-      <c r="I22" s="82" t="s">
+      <c r="I22" s="63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="87">
+    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="68">
         <v>22</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="83" t="s">
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="83" t="s">
+      <c r="G23" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="81">
+      <c r="H23" s="62">
         <v>0</v>
       </c>
-      <c r="I23" s="82" t="s">
+      <c r="I23" s="63" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="87">
+      <c r="A24" s="85">
         <v>23</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="79" t="s">
+      <c r="C24" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="83" t="s">
+      <c r="E24" s="72"/>
+      <c r="F24" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="G24" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H24" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I24" s="82" t="s">
+      <c r="H24" s="74">
+        <v>1</v>
+      </c>
+      <c r="I24" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="87">
+      <c r="A25" s="85">
         <v>24</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="79" t="s">
+      <c r="C25" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="83" t="s">
+      <c r="E25" s="72"/>
+      <c r="F25" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H25" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I25" s="82" t="s">
+      <c r="H25" s="74">
+        <v>1</v>
+      </c>
+      <c r="I25" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="87">
+      <c r="A26" s="85">
         <v>25</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="79" t="s">
+      <c r="C26" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="83" t="s">
+      <c r="E26" s="72"/>
+      <c r="F26" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="G26" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H26" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I26" s="82" t="s">
+      <c r="H26" s="74">
+        <v>1</v>
+      </c>
+      <c r="I26" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="87">
+      <c r="A27" s="85">
         <v>26</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="79" t="s">
+      <c r="C27" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="83" t="s">
+      <c r="E27" s="72"/>
+      <c r="F27" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H27" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I27" s="82" t="s">
+      <c r="H27" s="74">
+        <v>1</v>
+      </c>
+      <c r="I27" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="87">
+      <c r="A28" s="85">
         <v>27</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="79" t="s">
+      <c r="C28" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="83" t="s">
+      <c r="E28" s="72"/>
+      <c r="F28" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I28" s="82" t="s">
+      <c r="H28" s="74">
+        <v>1</v>
+      </c>
+      <c r="I28" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="87">
+      <c r="A29" s="85">
         <v>28</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="79" t="s">
+      <c r="C29" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="83" t="s">
+      <c r="E29" s="72"/>
+      <c r="F29" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="83" t="s">
+      <c r="G29" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I29" s="82" t="s">
+      <c r="H29" s="74">
+        <v>1</v>
+      </c>
+      <c r="I29" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="87">
+      <c r="A30" s="85">
         <v>29</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="79" t="s">
+      <c r="C30" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="83" t="s">
+      <c r="E30" s="72"/>
+      <c r="F30" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H30" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I30" s="82" t="s">
+      <c r="H30" s="74">
+        <v>1</v>
+      </c>
+      <c r="I30" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="87">
+      <c r="A31" s="85">
         <v>30</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="79" t="s">
+      <c r="C31" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="83" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="G31" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H31" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I31" s="82" t="s">
+      <c r="H31" s="74">
+        <v>1</v>
+      </c>
+      <c r="I31" s="75" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C32:E1048576 C1:E18 D19:E22 C19:C23">
-    <cfRule type="cellIs" dxfId="6" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="32" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="4" priority="30" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="9" priority="30" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7416,18 +7484,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E31">
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7437,6 +7505,661 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="62">
+        <v>0</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="68">
+        <v>2</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="62">
+        <v>0</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="62">
+        <v>0</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="68">
+        <v>4</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="62">
+        <v>0</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="68">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="62">
+        <v>0</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="62">
+        <v>0</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="68">
+        <v>8</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="62">
+        <v>0</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="68">
+        <v>10</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="68">
+        <v>11</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="62">
+        <v>0</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="68">
+        <v>12</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="62">
+        <v>0</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="68">
+        <v>13</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="68">
+        <v>14</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="62">
+        <v>0</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="62">
+        <v>0</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="68">
+        <v>16</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="62">
+        <v>0</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="68">
+        <v>17</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="62">
+        <v>0</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="68">
+        <v>18</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="68">
+        <v>19</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="74">
+        <v>1</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="68">
+        <v>20</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="74">
+        <v>1</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="68">
+        <v>21</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="74">
+        <v>1</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="68">
+        <v>22</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="74">
+        <v>1</v>
+      </c>
+      <c r="I23" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D15:E18 C15:C19 C20:E1048576 C1:E14">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K17"/>
   <sheetViews>
@@ -7458,16 +8181,16 @@
       <c r="C4" s="11">
         <v>2017</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="76">
         <v>2018</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="12" t="s">
@@ -7505,8 +8228,8 @@
       <c r="B6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -7520,8 +8243,8 @@
         <v>10</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -7534,8 +8257,8 @@
         <v>11</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7549,7 +8272,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -7563,7 +8286,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="9"/>
@@ -7577,7 +8300,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="9"/>
@@ -7604,8 +8327,8 @@
         <v>16</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="6"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -7666,7 +8389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K17"/>
   <sheetViews>
@@ -7688,16 +8411,16 @@
       <c r="C4" s="26">
         <v>2017</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="79">
         <v>2018</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="27" t="s">
@@ -7735,9 +8458,9 @@
       <c r="B6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -7749,9 +8472,9 @@
       <c r="B7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -7764,8 +8487,8 @@
         <v>24</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="34"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7778,8 +8501,8 @@
         <v>25</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -7793,7 +8516,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -7807,7 +8530,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="9"/>
@@ -7821,7 +8544,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="9"/>
@@ -7896,11 +8619,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -7918,16 +8641,16 @@
       <c r="C4" s="24">
         <v>2017</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="82">
         <v>2018</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="37" t="s">
@@ -7965,8 +8688,8 @@
       <c r="B6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -7979,9 +8702,9 @@
       <c r="B7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -7994,8 +8717,8 @@
         <v>37</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8009,7 +8732,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="5"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -8022,7 +8745,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="64"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -8050,8 +8773,8 @@
         <v>41</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="5"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -8065,7 +8788,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="9"/>

--- a/TurtleBomb_개발일정.xlsx
+++ b/TurtleBomb_개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9110" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9110" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="프로토타입 개발 일정(~12.25)" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="286">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,10 +962,6 @@
   </si>
   <si>
     <t>고블린과 충돌 전 공격 AI/애니 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스몹 텍스쳐 분리 적용 (글라이더 텍스쳐, 고블린 텍스쳐)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1111,6 +1107,66 @@
   <si>
     <t>필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몹 텍스쳐 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몹 텍스쳐 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몹 애니메이션 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 고블린 애니메이션 (기본자세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 고블린 애니메이션 (다시눕기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 고블린 애니메이션 (이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 고블린 애니메이션 (일어나기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 고블린 애니메이션 (일어난기본자세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 고블린 애니메이션 (일어난후죽음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 고블린 애니메이션 (일어난후피격당함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-04 (토)</t>
+  </si>
+  <si>
+    <t>2018-03-13 (월)</t>
+  </si>
+  <si>
+    <t>2018-03-05 (토)</t>
+  </si>
+  <si>
+    <t>2018-03-14 (월)</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,6 +1329,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1734,7 +1802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1963,6 +2031,54 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1990,53 +2106,39 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="79">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2064,6 +2166,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3109,31 +3241,31 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="87">
-        <v>1</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="78">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="91">
-        <v>1</v>
-      </c>
-      <c r="H2" s="92" t="s">
+      <c r="G2" s="82">
+        <v>1</v>
+      </c>
+      <c r="H2" s="83" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="85">
+      <c r="A3" s="76">
         <v>2</v>
       </c>
       <c r="B3" s="71" t="s">
@@ -3157,7 +3289,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="87">
+      <c r="A4" s="78">
         <v>3</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -3181,7 +3313,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="85">
+      <c r="A5" s="76">
         <v>4</v>
       </c>
       <c r="B5" s="71" t="s">
@@ -3205,7 +3337,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="87">
+      <c r="A6" s="78">
         <v>5</v>
       </c>
       <c r="B6" s="71" t="s">
@@ -3229,7 +3361,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="85">
+      <c r="A7" s="76">
         <v>6</v>
       </c>
       <c r="B7" s="71" t="s">
@@ -3253,7 +3385,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="87">
+      <c r="A8" s="78">
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
@@ -3277,7 +3409,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="85">
+      <c r="A9" s="76">
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
@@ -3301,7 +3433,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="87">
+      <c r="A10" s="78">
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
@@ -3325,7 +3457,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="85">
+      <c r="A11" s="76">
         <v>10</v>
       </c>
       <c r="B11" s="71" t="s">
@@ -3349,7 +3481,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="87">
+      <c r="A12" s="78">
         <v>11</v>
       </c>
       <c r="B12" s="71" t="s">
@@ -3373,7 +3505,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="85">
+      <c r="A13" s="76">
         <v>12</v>
       </c>
       <c r="B13" s="71" t="s">
@@ -3397,7 +3529,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="87">
+      <c r="A14" s="78">
         <v>13</v>
       </c>
       <c r="B14" s="71" t="s">
@@ -3421,36 +3553,36 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="85">
+      <c r="A15" s="76">
         <v>14</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="97">
-        <v>1</v>
-      </c>
-      <c r="H15" s="98" t="s">
+      <c r="G15" s="88">
+        <v>1</v>
+      </c>
+      <c r="H15" s="89" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3518,204 +3650,204 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="87">
-        <v>1</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="78">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="91">
-        <v>1</v>
-      </c>
-      <c r="H2" s="92" t="s">
+      <c r="G2" s="82">
+        <v>1</v>
+      </c>
+      <c r="H2" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="87">
+      <c r="A3" s="78">
         <v>2</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="91">
-        <v>1</v>
-      </c>
-      <c r="H3" s="92" t="s">
+      <c r="G3" s="82">
+        <v>1</v>
+      </c>
+      <c r="H3" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="87">
+      <c r="A4" s="78">
         <v>3</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="74">
         <v>1</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="87">
+      <c r="A5" s="78">
         <v>4</v>
       </c>
       <c r="B5" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="74">
         <v>1</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="87">
+      <c r="A6" s="78">
         <v>5</v>
       </c>
       <c r="B6" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="74">
         <v>1</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="87">
+      <c r="A7" s="78">
         <v>6</v>
       </c>
       <c r="B7" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="74">
         <v>1</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="87">
+      <c r="A8" s="78">
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="74">
         <v>1</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="83" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="87">
+      <c r="A9" s="78">
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="93" t="s">
+      <c r="C9" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="74">
@@ -3752,22 +3884,22 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="87">
+      <c r="A11" s="78">
         <v>10</v>
       </c>
       <c r="B11" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="80" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="74">
@@ -3778,22 +3910,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="87">
+      <c r="A12" s="78">
         <v>11</v>
       </c>
       <c r="B12" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="80" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="74">
@@ -3804,22 +3936,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="87">
+      <c r="A13" s="78">
         <v>12</v>
       </c>
       <c r="B13" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="80" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="74">
@@ -3830,22 +3962,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="87">
+      <c r="A14" s="78">
         <v>13</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="80" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="74">
@@ -3856,22 +3988,22 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="87">
+      <c r="A15" s="78">
         <v>14</v>
       </c>
       <c r="B15" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="74">
@@ -3882,22 +4014,22 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="87">
+      <c r="A16" s="78">
         <v>15</v>
       </c>
       <c r="B16" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="74">
@@ -3908,22 +4040,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="87">
+      <c r="A17" s="78">
         <v>16</v>
       </c>
       <c r="B17" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="74">
@@ -3934,22 +4066,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="87">
+      <c r="A18" s="78">
         <v>17</v>
       </c>
       <c r="B18" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="74">
@@ -3960,22 +4092,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="87">
+      <c r="A19" s="78">
         <v>18</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="74">
@@ -3986,22 +4118,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="87">
+      <c r="A20" s="78">
         <v>19</v>
       </c>
       <c r="B20" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="90" t="s">
+      <c r="E20" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="90" t="s">
+      <c r="F20" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="74">
@@ -4012,22 +4144,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="87">
+      <c r="A21" s="78">
         <v>20</v>
       </c>
       <c r="B21" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="90" t="s">
+      <c r="E21" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="74">
@@ -4038,22 +4170,22 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="87">
+      <c r="A22" s="78">
         <v>21</v>
       </c>
       <c r="B22" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="90" t="s">
+      <c r="F22" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="74">
@@ -4064,22 +4196,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="87">
+      <c r="A23" s="78">
         <v>22</v>
       </c>
       <c r="B23" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="74">
@@ -4090,22 +4222,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="87">
+      <c r="A24" s="78">
         <v>23</v>
       </c>
       <c r="B24" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="74">
@@ -4116,22 +4248,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="87">
+      <c r="A25" s="78">
         <v>24</v>
       </c>
       <c r="B25" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="81" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="74">
@@ -4144,15 +4276,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C15:C16 C10:D12 C9 C19:C24 C25:D1048576 C1:D8">
-    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="24" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="25" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E1:F12 E19:F1048576">
-    <cfRule type="containsText" dxfId="70" priority="23" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="74" priority="23" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4169,15 +4301,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D14 D15:D24">
-    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F14">
-    <cfRule type="containsText" dxfId="67" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="71" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4204,15 +4336,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="64" priority="9" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4239,15 +4371,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4297,8 +4429,8 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4343,7 +4475,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="85">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -4370,7 +4502,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="85">
+      <c r="A3" s="76">
         <v>2</v>
       </c>
       <c r="B3" s="71" t="s">
@@ -4397,7 +4529,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="85">
+      <c r="A4" s="76">
         <v>3</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -4422,7 +4554,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="85">
+      <c r="A5" s="76">
         <v>4</v>
       </c>
       <c r="B5" s="71" t="s">
@@ -4449,7 +4581,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="85">
+      <c r="A6" s="76">
         <v>5</v>
       </c>
       <c r="B6" s="71" t="s">
@@ -4474,7 +4606,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="85">
+      <c r="A7" s="76">
         <v>6</v>
       </c>
       <c r="B7" s="71" t="s">
@@ -4501,7 +4633,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="85">
+      <c r="A8" s="76">
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
@@ -4528,7 +4660,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="85">
+      <c r="A9" s="76">
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
@@ -4555,7 +4687,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="85">
+      <c r="A10" s="76">
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
@@ -4582,7 +4714,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="85">
+      <c r="A11" s="76">
         <v>10</v>
       </c>
       <c r="B11" s="71" t="s">
@@ -4611,7 +4743,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="85">
+      <c r="A12" s="76">
         <v>11</v>
       </c>
       <c r="B12" s="71" t="s">
@@ -4667,7 +4799,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="85">
+      <c r="A14" s="76">
         <v>13</v>
       </c>
       <c r="B14" s="71" t="s">
@@ -4696,7 +4828,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="85">
+      <c r="A15" s="76">
         <v>14</v>
       </c>
       <c r="B15" s="71" t="s">
@@ -4725,7 +4857,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="85">
+      <c r="A16" s="76">
         <v>15</v>
       </c>
       <c r="B16" s="71" t="s">
@@ -4829,7 +4961,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="85">
+      <c r="A20" s="76">
         <v>19</v>
       </c>
       <c r="B20" s="71" t="s">
@@ -4856,7 +4988,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="85">
+      <c r="A21" s="76">
         <v>20</v>
       </c>
       <c r="B21" s="71" t="s">
@@ -4883,7 +5015,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="85">
+      <c r="A22" s="76">
         <v>21</v>
       </c>
       <c r="B22" s="71" t="s">
@@ -4910,7 +5042,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="85">
+      <c r="A23" s="76">
         <v>22</v>
       </c>
       <c r="B23" s="71" t="s">
@@ -4937,7 +5069,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="85">
+      <c r="A24" s="76">
         <v>23</v>
       </c>
       <c r="B24" s="71" t="s">
@@ -4964,7 +5096,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="85">
+      <c r="A25" s="76">
         <v>24</v>
       </c>
       <c r="B25" s="71" t="s">
@@ -4991,7 +5123,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="85">
+      <c r="A26" s="76">
         <v>25</v>
       </c>
       <c r="B26" s="71" t="s">
@@ -5018,7 +5150,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="85">
+      <c r="A27" s="76">
         <v>26</v>
       </c>
       <c r="B27" s="71" t="s">
@@ -5045,7 +5177,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="85">
+      <c r="A28" s="76">
         <v>27</v>
       </c>
       <c r="B28" s="71" t="s">
@@ -5072,7 +5204,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="85">
+      <c r="A29" s="76">
         <v>28</v>
       </c>
       <c r="B29" s="71" t="s">
@@ -5099,7 +5231,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="85">
+      <c r="A30" s="76">
         <v>29</v>
       </c>
       <c r="B30" s="71" t="s">
@@ -5126,7 +5258,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="85">
+      <c r="A31" s="76">
         <v>30</v>
       </c>
       <c r="B31" s="71" t="s">
@@ -5153,7 +5285,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="85">
+      <c r="A32" s="76">
         <v>31</v>
       </c>
       <c r="B32" s="71" t="s">
@@ -5178,7 +5310,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="85">
+      <c r="A33" s="76">
         <v>32</v>
       </c>
       <c r="B33" s="71" t="s">
@@ -5205,7 +5337,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="85">
+      <c r="A34" s="76">
         <v>33</v>
       </c>
       <c r="B34" s="71" t="s">
@@ -5232,7 +5364,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="85">
+      <c r="A35" s="76">
         <v>34</v>
       </c>
       <c r="B35" s="71" t="s">
@@ -5259,7 +5391,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="85">
+      <c r="A36" s="76">
         <v>35</v>
       </c>
       <c r="B36" s="71" t="s">
@@ -5286,7 +5418,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="85">
+      <c r="A37" s="76">
         <v>36</v>
       </c>
       <c r="B37" s="71" t="s">
@@ -5396,15 +5528,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C26:D28 C33:D33 D32 C41:E1048576 C23:D23 C1:E19 C36:D40 E32:E40">
-    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F23:F1048576">
-    <cfRule type="containsText" dxfId="58" priority="52" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5421,10 +5553,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E25 E24:E29">
-    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5439,63 +5571,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="44" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="45" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D30">
-    <cfRule type="cellIs" dxfId="47" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:D31 C32">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E22">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5522,18 +5654,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5549,8 +5681,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5595,7 +5727,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="85">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -5622,7 +5754,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="85">
+      <c r="A3" s="76">
         <v>2</v>
       </c>
       <c r="B3" s="71" t="s">
@@ -5649,7 +5781,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="85">
+      <c r="A4" s="76">
         <v>3</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -5674,7 +5806,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="85">
+      <c r="A5" s="76">
         <v>4</v>
       </c>
       <c r="B5" s="71" t="s">
@@ -5701,7 +5833,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="85">
+      <c r="A6" s="76">
         <v>5</v>
       </c>
       <c r="B6" s="71" t="s">
@@ -5711,7 +5843,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F6" s="73" t="s">
@@ -5728,7 +5860,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="85">
+      <c r="A7" s="76">
         <v>6</v>
       </c>
       <c r="B7" s="71" t="s">
@@ -5755,7 +5887,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="85">
+      <c r="A8" s="76">
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
@@ -5780,7 +5912,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="85">
+      <c r="A9" s="76">
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
@@ -5836,7 +5968,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="85">
+      <c r="A11" s="76">
         <v>10</v>
       </c>
       <c r="B11" s="71" t="s">
@@ -5865,7 +5997,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="85">
+      <c r="A12" s="76">
         <v>11</v>
       </c>
       <c r="B12" s="71" t="s">
@@ -5894,7 +6026,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="85">
+      <c r="A13" s="76">
         <v>12</v>
       </c>
       <c r="B13" s="71" t="s">
@@ -5921,7 +6053,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="85">
+      <c r="A14" s="76">
         <v>13</v>
       </c>
       <c r="B14" s="71" t="s">
@@ -5948,7 +6080,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="85">
+      <c r="A15" s="76">
         <v>14</v>
       </c>
       <c r="B15" s="71" t="s">
@@ -5975,7 +6107,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="85">
+      <c r="A16" s="76">
         <v>15</v>
       </c>
       <c r="B16" s="71" t="s">
@@ -6002,7 +6134,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="85">
+      <c r="A17" s="76">
         <v>16</v>
       </c>
       <c r="B17" s="71" t="s">
@@ -6029,7 +6161,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="85">
+      <c r="A18" s="76">
         <v>17</v>
       </c>
       <c r="B18" s="71" t="s">
@@ -6131,7 +6263,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="85">
+      <c r="A22" s="76">
         <v>21</v>
       </c>
       <c r="B22" s="71" t="s">
@@ -6158,7 +6290,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="85">
+      <c r="A23" s="76">
         <v>22</v>
       </c>
       <c r="B23" s="71" t="s">
@@ -6185,7 +6317,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="85">
+      <c r="A24" s="76">
         <v>23</v>
       </c>
       <c r="B24" s="71" t="s">
@@ -6212,7 +6344,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="85">
+      <c r="A25" s="76">
         <v>24</v>
       </c>
       <c r="B25" s="71" t="s">
@@ -6239,7 +6371,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="85">
+      <c r="A26" s="76">
         <v>25</v>
       </c>
       <c r="B26" s="71" t="s">
@@ -6266,7 +6398,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="85">
+      <c r="A27" s="76">
         <v>26</v>
       </c>
       <c r="B27" s="71" t="s">
@@ -6293,7 +6425,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="85">
+      <c r="A28" s="76">
         <v>27</v>
       </c>
       <c r="B28" s="71" t="s">
@@ -6320,7 +6452,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="85">
+      <c r="A29" s="76">
         <v>28</v>
       </c>
       <c r="B29" s="71" t="s">
@@ -6401,7 +6533,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="85">
+      <c r="A32" s="76">
         <v>31</v>
       </c>
       <c r="B32" s="71" t="s">
@@ -6428,7 +6560,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="85">
+      <c r="A33" s="76">
         <v>32</v>
       </c>
       <c r="B33" s="71" t="s">
@@ -6457,39 +6589,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:D25 D22:D24 C34:E1048576 C28:D31 E22:E31 C1:E14 C16:E21">
-    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="57" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F1048576 F1:F4 F7:F13 F25:F31 F16:F22">
-    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27">
-    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6516,69 +6648,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6605,7 +6737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6619,10 +6751,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6667,7 +6799,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="85">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -6694,7 +6826,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A3" s="85">
+      <c r="A3" s="76">
         <v>2</v>
       </c>
       <c r="B3" s="71" t="s">
@@ -6704,7 +6836,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="77" t="s">
         <v>228</v>
       </c>
       <c r="F3" s="73" t="s">
@@ -6721,7 +6853,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A4" s="85">
+      <c r="A4" s="76">
         <v>3</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -6731,7 +6863,7 @@
         <v>78</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="77" t="s">
         <v>231</v>
       </c>
       <c r="F4" s="73" t="s">
@@ -6748,7 +6880,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A5" s="85">
+      <c r="A5" s="76">
         <v>4</v>
       </c>
       <c r="B5" s="71" t="s">
@@ -6758,7 +6890,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F5" s="73" t="s">
@@ -6775,7 +6907,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="85">
+      <c r="A6" s="76">
         <v>5</v>
       </c>
       <c r="B6" s="71" t="s">
@@ -6785,7 +6917,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="77" t="s">
         <v>230</v>
       </c>
       <c r="F6" s="73" t="s">
@@ -6802,7 +6934,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="85">
+      <c r="A7" s="76">
         <v>6</v>
       </c>
       <c r="B7" s="71" t="s">
@@ -6831,7 +6963,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C8" s="60" t="s">
         <v>78</v>
@@ -6845,43 +6977,43 @@
         <v>226</v>
       </c>
       <c r="H8" s="62">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="63" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="68">
+      <c r="A9" s="76">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="64" t="s">
+      <c r="B9" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="62">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="63" t="s">
+      <c r="H9" s="74">
+        <v>1</v>
+      </c>
+      <c r="I9" s="75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="85">
+    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="76">
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C10" s="72" t="s">
         <v>78</v>
@@ -6898,21 +7030,23 @@
         <v>1</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="85">
+      <c r="A11" s="76">
         <v>10</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="C11" s="72" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="72" t="s">
+        <v>193</v>
+      </c>
       <c r="F11" s="73" t="s">
         <v>225</v>
       </c>
@@ -6923,34 +7057,32 @@
         <v>1</v>
       </c>
       <c r="I11" s="75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="85">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="68">
         <v>11</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="73" t="s">
+      <c r="B12" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="74">
-        <v>1</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>79</v>
+      <c r="H12" s="62">
+        <v>0</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -6958,10 +7090,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -6975,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -7003,7 +7135,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.45">
       <c r="A15" s="68">
         <v>14</v>
       </c>
@@ -7011,10 +7143,12 @@
         <v>244</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="E15" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="F15" s="64" t="s">
         <v>225</v>
       </c>
@@ -7025,23 +7159,21 @@
         <v>0</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="68" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="68">
         <v>15</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="D16" s="60"/>
-      <c r="E16" s="70" t="s">
-        <v>246</v>
-      </c>
+      <c r="E16" s="60"/>
       <c r="F16" s="64" t="s">
         <v>225</v>
       </c>
@@ -7052,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="63" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -7060,7 +7192,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>92</v>
@@ -7080,162 +7212,164 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="68">
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="101">
         <v>17</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="64" t="s">
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="62">
-        <v>0</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>89</v>
+      <c r="H18" s="105">
+        <v>1</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="68">
+      <c r="A19" s="101">
         <v>18</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="104" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" s="105">
+        <v>1</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="101">
+        <v>19</v>
+      </c>
+      <c r="B20" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C20" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="64" t="s">
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G20" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="H19" s="62">
-        <v>0</v>
-      </c>
-      <c r="I19" s="63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="68">
-        <v>19</v>
-      </c>
-      <c r="B20" s="61" t="s">
+      <c r="H20" s="105">
+        <v>1</v>
+      </c>
+      <c r="I20" s="106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="101">
+        <v>20</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="104" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="105">
+        <v>1</v>
+      </c>
+      <c r="I21" s="106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="101">
+        <v>21</v>
+      </c>
+      <c r="B22" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C22" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="64" t="s">
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G22" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="H20" s="62">
-        <v>0</v>
-      </c>
-      <c r="I20" s="63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="68">
-        <v>20</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="64" t="s">
+      <c r="H22" s="105">
+        <v>1</v>
+      </c>
+      <c r="I22" s="106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="76">
+        <v>22</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G23" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H21" s="62">
-        <v>0</v>
-      </c>
-      <c r="I21" s="63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="68">
-        <v>21</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" s="62">
-        <v>0</v>
-      </c>
-      <c r="I22" s="63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="68">
-        <v>22</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="62">
-        <v>0</v>
-      </c>
-      <c r="I23" s="63" t="s">
-        <v>256</v>
+      <c r="H23" s="74">
+        <v>1</v>
+      </c>
+      <c r="I23" s="75" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="85">
+      <c r="A24" s="76">
         <v>23</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C24" s="72" t="s">
         <v>78</v>
@@ -7258,7 +7392,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="85">
+      <c r="A25" s="76">
         <v>24</v>
       </c>
       <c r="B25" s="71" t="s">
@@ -7285,7 +7419,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="85">
+      <c r="A26" s="76">
         <v>25</v>
       </c>
       <c r="B26" s="71" t="s">
@@ -7312,7 +7446,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="85">
+      <c r="A27" s="76">
         <v>26</v>
       </c>
       <c r="B27" s="71" t="s">
@@ -7339,7 +7473,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="85">
+      <c r="A28" s="76">
         <v>27</v>
       </c>
       <c r="B28" s="71" t="s">
@@ -7366,7 +7500,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="85">
+      <c r="A29" s="76">
         <v>28</v>
       </c>
       <c r="B29" s="71" t="s">
@@ -7393,7 +7527,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="85">
+      <c r="A30" s="76">
         <v>29</v>
       </c>
       <c r="B30" s="71" t="s">
@@ -7419,45 +7553,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="85">
-        <v>30</v>
-      </c>
-      <c r="B31" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="H31" s="74">
-        <v>1</v>
-      </c>
-      <c r="I31" s="75" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C32:E1048576 C1:E18 D19:E22 C19:C23">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
+  <conditionalFormatting sqref="C31:E1048576 D18:E21 C18:C22 C1:E17">
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="32" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="9" priority="30" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7483,19 +7590,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:E31">
-    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
+  <conditionalFormatting sqref="C23:E30">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7506,10 +7613,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7558,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>64</v>
@@ -7566,10 +7673,10 @@
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
       <c r="F2" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H2" s="62">
         <v>0</v>
@@ -7583,18 +7690,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="60" t="s">
+        <v>271</v>
+      </c>
       <c r="E3" s="60"/>
       <c r="F3" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H3" s="62">
         <v>0</v>
@@ -7608,7 +7717,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>64</v>
@@ -7616,10 +7725,10 @@
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
       <c r="F4" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H4" s="62">
         <v>0</v>
@@ -7633,18 +7742,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>269</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>270</v>
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
       <c r="F5" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H5" s="62">
         <v>0</v>
@@ -7654,83 +7763,83 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="68">
+      <c r="A6" s="101">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="105">
+        <v>1</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="101">
+        <v>6</v>
+      </c>
+      <c r="B7" s="102" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C7" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="64" t="s">
+      <c r="D7" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="62">
-        <v>0</v>
-      </c>
-      <c r="I6" s="63" t="s">
+      <c r="H7" s="105">
+        <v>1</v>
+      </c>
+      <c r="I7" s="106" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="68">
-        <v>6</v>
-      </c>
-      <c r="B7" s="61" t="s">
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="101">
+        <v>7</v>
+      </c>
+      <c r="B8" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C8" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D8" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="64" t="s">
+      <c r="E8" s="103"/>
+      <c r="F8" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="62">
-        <v>0</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="68">
-        <v>7</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="62">
-        <v>0</v>
-      </c>
-      <c r="I8" s="63" t="s">
+      <c r="H8" s="105">
+        <v>1</v>
+      </c>
+      <c r="I8" s="106" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7739,20 +7848,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="60" t="s">
+        <v>274</v>
+      </c>
       <c r="E9" s="60"/>
       <c r="F9" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="G9" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="62">
+      <c r="H9" s="105">
         <v>0</v>
       </c>
       <c r="I9" s="63" t="s">
@@ -7764,7 +7875,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="C10" s="60" t="s">
         <v>64</v>
@@ -7772,16 +7883,16 @@
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
       <c r="F10" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H10" s="62">
         <v>0</v>
       </c>
       <c r="I10" s="63" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
@@ -7789,7 +7900,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="C11" s="60" t="s">
         <v>64</v>
@@ -7797,10 +7908,10 @@
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
       <c r="F11" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H11" s="62">
         <v>0</v>
@@ -7814,7 +7925,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>64</v>
@@ -7822,10 +7933,10 @@
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
       <c r="F12" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H12" s="62">
         <v>0</v>
@@ -7839,7 +7950,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>64</v>
@@ -7847,10 +7958,10 @@
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H13" s="62">
         <v>0</v>
@@ -7864,7 +7975,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>64</v>
@@ -7872,10 +7983,10 @@
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
       <c r="F14" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H14" s="62">
         <v>0</v>
@@ -7889,7 +8000,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>64</v>
@@ -7897,235 +8008,335 @@
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
       <c r="F15" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="64" t="s">
         <v>265</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>266</v>
       </c>
       <c r="H15" s="62">
         <v>0</v>
       </c>
       <c r="I15" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="101">
+        <v>15</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="105">
+        <v>1</v>
+      </c>
+      <c r="I16" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="68">
-        <v>15</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="60" t="s">
+    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="101">
+        <v>16</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="64" t="s">
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G16" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="62">
-        <v>0</v>
-      </c>
-      <c r="I16" s="63" t="s">
+      <c r="H17" s="105">
+        <v>1</v>
+      </c>
+      <c r="I17" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="68">
-        <v>16</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="60" t="s">
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="101">
+        <v>17</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="64" t="s">
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G17" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="62">
-        <v>0</v>
-      </c>
-      <c r="I17" s="63" t="s">
+      <c r="H18" s="105">
+        <v>1</v>
+      </c>
+      <c r="I18" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="68">
-        <v>17</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="60" t="s">
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="101">
+        <v>18</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="64" t="s">
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G18" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="62">
-        <v>0</v>
-      </c>
-      <c r="I18" s="63" t="s">
+      <c r="H19" s="105">
+        <v>1</v>
+      </c>
+      <c r="I19" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="68">
-        <v>18</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="60" t="s">
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="101">
+        <v>19</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="64" t="s">
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G19" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="62">
-        <v>0</v>
-      </c>
-      <c r="I19" s="63" t="s">
+      <c r="H20" s="105">
+        <v>1</v>
+      </c>
+      <c r="I20" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="68">
-        <v>19</v>
-      </c>
-      <c r="B20" s="71" t="s">
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="101">
+        <v>20</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="104" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" s="105">
+        <v>1</v>
+      </c>
+      <c r="I21" s="106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="101">
+        <v>21</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="105">
+        <v>1</v>
+      </c>
+      <c r="I22" s="106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="101">
+        <v>22</v>
+      </c>
+      <c r="B23" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" s="105">
+        <v>1</v>
+      </c>
+      <c r="I23" s="106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="101">
+        <v>23</v>
+      </c>
+      <c r="B24" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C24" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73" t="s">
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G20" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="74">
-        <v>1</v>
-      </c>
-      <c r="I20" s="75" t="s">
+      <c r="H24" s="105">
+        <v>1</v>
+      </c>
+      <c r="I24" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="68">
-        <v>20</v>
-      </c>
-      <c r="B21" s="71" t="s">
+    <row r="25" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="101">
+        <v>24</v>
+      </c>
+      <c r="B25" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C25" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73" t="s">
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G21" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="74">
-        <v>1</v>
-      </c>
-      <c r="I21" s="75" t="s">
+      <c r="H25" s="105">
+        <v>1</v>
+      </c>
+      <c r="I25" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="68">
-        <v>21</v>
-      </c>
-      <c r="B22" s="71" t="s">
+    <row r="26" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="101">
+        <v>25</v>
+      </c>
+      <c r="B26" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C26" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73" t="s">
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G22" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="74">
-        <v>1</v>
-      </c>
-      <c r="I22" s="75" t="s">
+      <c r="H26" s="105">
+        <v>1</v>
+      </c>
+      <c r="I26" s="106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="68">
-        <v>22</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="72" t="s">
+    <row r="27" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="101">
+        <v>26</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73" t="s">
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G23" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="74">
-        <v>1</v>
-      </c>
-      <c r="I23" s="75" t="s">
+      <c r="H27" s="105">
+        <v>1</v>
+      </c>
+      <c r="I27" s="106" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D15:E18 C15:C19 C20:E1048576 C1:E14">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="D16:E19 C23:E26 C28:E1048576 C1:E15 C16:C22">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="12-20">
+  <conditionalFormatting sqref="F1:F8 F28:F1048576 F10:F26">
+    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="H28:H1048576 H1:H26">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8136,8 +8347,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="H28:H1048576 H1:H26">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8146,12 +8357,52 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D20:E22">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="1" priority="12" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8164,7 +8415,7 @@
   <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8181,16 +8432,16 @@
       <c r="C4" s="11">
         <v>2017</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="92">
         <v>2018</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="12" t="s">
@@ -8273,7 +8524,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="59"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="9"/>
@@ -8287,7 +8538,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="6"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -8301,7 +8552,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="59"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="6"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -8329,7 +8580,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -8371,7 +8622,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -8394,7 +8645,7 @@
   <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8411,16 +8662,16 @@
       <c r="C4" s="26">
         <v>2017</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="95">
         <v>2018</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="27" t="s">
@@ -8489,7 +8740,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -8517,7 +8768,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="34"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="9"/>
@@ -8531,7 +8782,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="59"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="34"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -8545,7 +8796,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="59"/>
-      <c r="F12" s="34"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="34"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -8559,7 +8810,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="34"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -8601,7 +8852,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="35"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
@@ -8623,8 +8874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8641,16 +8892,16 @@
       <c r="C4" s="24">
         <v>2017</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="98">
         <v>2018</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="84"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
     </row>
     <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="37" t="s">
@@ -8733,7 +8984,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="59"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -8775,7 +9026,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="59"/>
       <c r="E12" s="59"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -8789,7 +9040,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="5"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -8803,7 +9054,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>

--- a/TurtleBomb_개발일정.xlsx
+++ b/TurtleBomb_개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9110" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="프로토타입 개발 일정(~12.25)" sheetId="8" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="3차 개발 일정(~2.12)" sheetId="10" r:id="rId4"/>
     <sheet name="4차 개발 일정(~3.2)" sheetId="11" r:id="rId5"/>
     <sheet name="5차 개발 일정(~3.12)" sheetId="12" r:id="rId6"/>
-    <sheet name="장동필" sheetId="1" r:id="rId7"/>
-    <sheet name="김성일" sheetId="4" r:id="rId8"/>
-    <sheet name="송형종" sheetId="5" r:id="rId9"/>
+    <sheet name="6차 개발 일정(~3.26)" sheetId="13" r:id="rId7"/>
+    <sheet name="장동필" sheetId="1" r:id="rId8"/>
+    <sheet name="김성일" sheetId="4" r:id="rId9"/>
+    <sheet name="송형종" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="301">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,9 +978,6 @@
   </si>
   <si>
     <t>숲 테마 1-4 맵 레벨 디자인</t>
-  </si>
-  <si>
-    <t>숲 테마 1-5 맵 레벨 디자인</t>
   </si>
   <si>
     <t>숲 테마 1-6 맵 레벨 디자인</t>
@@ -1167,12 +1165,79 @@
   </si>
   <si>
     <t>2018-03-14 (월)</t>
+  </si>
+  <si>
+    <t>보스전 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서든데스 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲 테마 1-5 맵 레벨 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲 테마 1-5 맵 레벨 디자인 (중간보스전으로 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험모드 시나리오 시스템 기획 및 UI 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험모드 시나리오 String Table 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원모드 제작 아이템 컨셉 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설원모드 터레인 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-15 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어드랍 모드 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 외주 요청 리스트 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-26 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 AI 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound Table 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start 화면 캐릭터 Idle 애니를 통한 퀄업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1802,7 +1867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2079,6 +2144,27 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,31 +2190,103 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3201,20 +3359,20 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.4140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.3984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="48" t="s">
         <v>73</v>
       </c>
@@ -3240,7 +3398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -3264,7 +3422,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -3288,7 +3446,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="78">
         <v>3</v>
       </c>
@@ -3312,7 +3470,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -3336,7 +3494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="78">
         <v>5</v>
       </c>
@@ -3360,7 +3518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -3384,7 +3542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="78">
         <v>7</v>
       </c>
@@ -3408,7 +3566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -3432,7 +3590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="78">
         <v>9</v>
       </c>
@@ -3456,7 +3614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -3480,7 +3638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="78">
         <v>11</v>
       </c>
@@ -3504,7 +3662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="76">
         <v>12</v>
       </c>
@@ -3528,7 +3686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="78">
         <v>13</v>
       </c>
@@ -3552,7 +3710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="76">
         <v>14</v>
       </c>
@@ -3579,10 +3737,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3596,6 +3754,236 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="105">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="107"/>
+    </row>
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3609,21 +3997,21 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="48" t="s">
         <v>73</v>
       </c>
@@ -3649,7 +4037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -3675,7 +4063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="78">
         <v>2</v>
       </c>
@@ -3701,7 +4089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="78">
         <v>3</v>
       </c>
@@ -3727,7 +4115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="78">
         <v>4</v>
       </c>
@@ -3753,7 +4141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="78">
         <v>5</v>
       </c>
@@ -3779,7 +4167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="78">
         <v>6</v>
       </c>
@@ -3805,7 +4193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="78">
         <v>7</v>
       </c>
@@ -3831,7 +4219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="78">
         <v>8</v>
       </c>
@@ -3857,7 +4245,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="51">
         <v>9</v>
       </c>
@@ -3883,7 +4271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="78">
         <v>10</v>
       </c>
@@ -3909,7 +4297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="78">
         <v>11</v>
       </c>
@@ -3935,7 +4323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="78">
         <v>12</v>
       </c>
@@ -3961,7 +4349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="78">
         <v>13</v>
       </c>
@@ -3987,7 +4375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="78">
         <v>14</v>
       </c>
@@ -4013,7 +4401,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="78">
         <v>15</v>
       </c>
@@ -4039,7 +4427,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="78">
         <v>16</v>
       </c>
@@ -4065,7 +4453,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="78">
         <v>17</v>
       </c>
@@ -4091,7 +4479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="78">
         <v>18</v>
       </c>
@@ -4117,7 +4505,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="78">
         <v>19</v>
       </c>
@@ -4143,7 +4531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="78">
         <v>20</v>
       </c>
@@ -4169,7 +4557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="78">
         <v>21</v>
       </c>
@@ -4195,7 +4583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="78">
         <v>22</v>
       </c>
@@ -4221,7 +4609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="78">
         <v>23</v>
       </c>
@@ -4247,7 +4635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="78">
         <v>24</v>
       </c>
@@ -4276,15 +4664,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C15:C16 C10:D12 C9 C19:C24 C25:D1048576 C1:D8">
-    <cfRule type="cellIs" dxfId="76" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="24" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="25" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E1:F12 E19:F1048576">
-    <cfRule type="containsText" dxfId="74" priority="23" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="83" priority="23" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4301,15 +4689,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D14 D15:D24">
-    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F14">
-    <cfRule type="containsText" dxfId="71" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="80" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4336,15 +4724,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4371,15 +4759,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4429,23 +4817,23 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -4474,7 +4862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -4501,7 +4889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -4528,7 +4916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -4553,7 +4941,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -4580,7 +4968,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -4605,7 +4993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -4632,7 +5020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="76">
         <v>7</v>
       </c>
@@ -4659,7 +5047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -4686,7 +5074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -4713,7 +5101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -4742,7 +5130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -4769,7 +5157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="68">
         <v>12</v>
       </c>
@@ -4798,7 +5186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="76">
         <v>13</v>
       </c>
@@ -4827,7 +5215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="76">
         <v>14</v>
       </c>
@@ -4856,7 +5244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="76">
         <v>15</v>
       </c>
@@ -4885,7 +5273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="68">
         <v>16</v>
       </c>
@@ -4910,7 +5298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="68">
         <v>17</v>
       </c>
@@ -4935,7 +5323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="68">
         <v>18</v>
       </c>
@@ -4960,7 +5348,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="76">
         <v>19</v>
       </c>
@@ -4987,7 +5375,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="76">
         <v>20</v>
       </c>
@@ -5014,7 +5402,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="76">
         <v>21</v>
       </c>
@@ -5041,7 +5429,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="76">
         <v>22</v>
       </c>
@@ -5068,7 +5456,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="76">
         <v>23</v>
       </c>
@@ -5095,7 +5483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="76">
         <v>24</v>
       </c>
@@ -5122,7 +5510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="76">
         <v>25</v>
       </c>
@@ -5149,7 +5537,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="76">
         <v>26</v>
       </c>
@@ -5176,7 +5564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="76">
         <v>27</v>
       </c>
@@ -5203,7 +5591,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="76">
         <v>28</v>
       </c>
@@ -5230,7 +5618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="76">
         <v>29</v>
       </c>
@@ -5257,7 +5645,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="76">
         <v>30</v>
       </c>
@@ -5284,7 +5672,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="76">
         <v>31</v>
       </c>
@@ -5309,7 +5697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="76">
         <v>32</v>
       </c>
@@ -5336,7 +5724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="76">
         <v>33</v>
       </c>
@@ -5363,7 +5751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="76">
         <v>34</v>
       </c>
@@ -5390,7 +5778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="76">
         <v>35</v>
       </c>
@@ -5417,7 +5805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="76">
         <v>36</v>
       </c>
@@ -5444,7 +5832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="68">
         <v>38</v>
       </c>
@@ -5471,7 +5859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="68">
         <v>39</v>
       </c>
@@ -5498,7 +5886,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="68">
         <v>40</v>
       </c>
@@ -5528,15 +5916,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C26:D28 C33:D33 D32 C41:E1048576 C23:D23 C1:E19 C36:D40 E32:E40">
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="53" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="54" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F23:F1048576">
-    <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5553,10 +5941,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E25 E24:E29">
-    <cfRule type="cellIs" dxfId="61" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5571,63 +5959,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="59" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="44" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="27" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="28" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="23" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D30">
-    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:D31 C32">
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E22">
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5654,18 +6042,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5682,22 +6070,22 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -5726,7 +6114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -5753,7 +6141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -5780,7 +6168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -5805,7 +6193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -5832,7 +6220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -5859,7 +6247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -5886,7 +6274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="76">
         <v>7</v>
       </c>
@@ -5911,7 +6299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -5938,7 +6326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="68">
         <v>9</v>
       </c>
@@ -5967,7 +6355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -5996,7 +6384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -6025,7 +6413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="76">
         <v>12</v>
       </c>
@@ -6052,7 +6440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="76">
         <v>13</v>
       </c>
@@ -6079,7 +6467,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="76">
         <v>14</v>
       </c>
@@ -6106,7 +6494,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="76">
         <v>15</v>
       </c>
@@ -6133,7 +6521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="76">
         <v>16</v>
       </c>
@@ -6160,7 +6548,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="76">
         <v>17</v>
       </c>
@@ -6187,7 +6575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="68">
         <v>18</v>
       </c>
@@ -6212,7 +6600,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="68">
         <v>19</v>
       </c>
@@ -6237,7 +6625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="68">
         <v>20</v>
       </c>
@@ -6262,7 +6650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="76">
         <v>21</v>
       </c>
@@ -6289,7 +6677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="76">
         <v>22</v>
       </c>
@@ -6316,7 +6704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="76">
         <v>23</v>
       </c>
@@ -6343,7 +6731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="76">
         <v>24</v>
       </c>
@@ -6370,7 +6758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="76">
         <v>25</v>
       </c>
@@ -6397,7 +6785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="76">
         <v>26</v>
       </c>
@@ -6424,7 +6812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="76">
         <v>27</v>
       </c>
@@ -6451,7 +6839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="76">
         <v>28</v>
       </c>
@@ -6478,7 +6866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="68">
         <v>29</v>
       </c>
@@ -6505,7 +6893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="68">
         <v>30</v>
       </c>
@@ -6532,7 +6920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="76">
         <v>31</v>
       </c>
@@ -6559,7 +6947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="76">
         <v>32</v>
       </c>
@@ -6589,39 +6977,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:D25 D22:D24 C34:E1048576 C28:D31 E22:E31 C1:E14 C16:E21">
-    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F1048576 F1:F4 F7:F13 F25:F31 F16:F22">
-    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27">
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6648,69 +7036,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="36" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6737,7 +7125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6754,22 +7142,22 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -6798,7 +7186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -6825,7 +7213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -6852,7 +7240,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -6879,7 +7267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -6906,7 +7294,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -6933,7 +7321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -6958,7 +7346,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -6983,7 +7371,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -7008,7 +7396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -7033,7 +7421,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -7060,7 +7448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="68">
         <v>11</v>
       </c>
@@ -7085,15 +7473,15 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="68">
         <v>12</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -7107,18 +7495,18 @@
         <v>0</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="68">
         <v>13</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -7132,22 +7520,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A15" s="68">
         <v>14</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>225</v>
@@ -7159,10 +7547,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="68">
         <v>15</v>
       </c>
@@ -7187,7 +7575,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="68">
         <v>16</v>
       </c>
@@ -7212,132 +7600,132 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="101">
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="92">
         <v>17</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="96">
+        <v>1</v>
+      </c>
+      <c r="I18" s="97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="92">
+        <v>18</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" s="96">
+        <v>1</v>
+      </c>
+      <c r="I19" s="97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="92">
+        <v>19</v>
+      </c>
+      <c r="B20" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C20" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104" t="s">
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="104" t="s">
+      <c r="G20" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="105">
-        <v>1</v>
-      </c>
-      <c r="I18" s="106" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="101">
-        <v>18</v>
-      </c>
-      <c r="B19" s="102" t="s">
+      <c r="H20" s="96">
+        <v>1</v>
+      </c>
+      <c r="I20" s="97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="92">
+        <v>20</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="96">
+        <v>1</v>
+      </c>
+      <c r="I21" s="97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="92">
+        <v>21</v>
+      </c>
+      <c r="B22" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C22" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="104" t="s">
+      <c r="G22" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="H19" s="105">
-        <v>1</v>
-      </c>
-      <c r="I19" s="106" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="101">
-        <v>19</v>
-      </c>
-      <c r="B20" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="105">
-        <v>1</v>
-      </c>
-      <c r="I20" s="106" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="101">
-        <v>20</v>
-      </c>
-      <c r="B21" s="102" t="s">
+      <c r="H22" s="96">
+        <v>1</v>
+      </c>
+      <c r="I22" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="G21" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="H21" s="105">
-        <v>1</v>
-      </c>
-      <c r="I21" s="106" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="101">
-        <v>21</v>
-      </c>
-      <c r="B22" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" s="105">
-        <v>1</v>
-      </c>
-      <c r="I22" s="106" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="76">
         <v>22</v>
       </c>
@@ -7364,7 +7752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="76">
         <v>23</v>
       </c>
@@ -7391,7 +7779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="76">
         <v>24</v>
       </c>
@@ -7418,12 +7806,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="76">
         <v>25</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C26" s="72" t="s">
         <v>78</v>
@@ -7445,12 +7833,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="76">
         <v>26</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>78</v>
@@ -7472,12 +7860,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="76">
         <v>27</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="72" t="s">
         <v>78</v>
@@ -7499,12 +7887,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="76">
         <v>28</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="72" t="s">
         <v>78</v>
@@ -7526,12 +7914,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="76">
         <v>29</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="72" t="s">
         <v>78</v>
@@ -7556,15 +7944,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C31:E1048576 D18:E21 C18:C22 C1:E17">
-    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7591,18 +7979,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:E30">
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7613,25 +8001,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+  </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -7660,12 +8051,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="68">
         <v>1</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>64</v>
@@ -7673,10 +8064,10 @@
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
       <c r="F2" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>264</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>265</v>
       </c>
       <c r="H2" s="62">
         <v>0</v>
@@ -7685,39 +8076,39 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="68">
+    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="76">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="64" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="H3" s="62">
-        <v>0</v>
-      </c>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="74">
+        <v>1</v>
+      </c>
+      <c r="I3" s="75" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="68">
         <v>3</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>64</v>
@@ -7725,10 +8116,10 @@
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
       <c r="F4" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="64" t="s">
         <v>264</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>265</v>
       </c>
       <c r="H4" s="62">
         <v>0</v>
@@ -7737,140 +8128,140 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="68">
         <v>4</v>
       </c>
       <c r="B5" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>268</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>269</v>
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
       <c r="F5" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>265</v>
-      </c>
       <c r="H5" s="62">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="101">
+    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="92">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="96">
+        <v>1</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="92">
+        <v>6</v>
+      </c>
+      <c r="B7" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104" t="s">
+      <c r="D7" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="105">
-        <v>1</v>
-      </c>
-      <c r="I6" s="106" t="s">
+      <c r="H7" s="96">
+        <v>1</v>
+      </c>
+      <c r="I7" s="97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="101">
-        <v>6</v>
-      </c>
-      <c r="B7" s="102" t="s">
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="92">
+        <v>7</v>
+      </c>
+      <c r="B8" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C8" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D8" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" s="105">
-        <v>1</v>
-      </c>
-      <c r="I7" s="106" t="s">
+      <c r="H8" s="96">
+        <v>1</v>
+      </c>
+      <c r="I8" s="97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="101">
-        <v>7</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="103" t="s">
+    <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="76">
+        <v>8</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104" t="s">
+      <c r="D9" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H8" s="105">
-        <v>1</v>
-      </c>
-      <c r="I8" s="106" t="s">
+      <c r="H9" s="74">
+        <v>1</v>
+      </c>
+      <c r="I9" s="75" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="68">
-        <v>8</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="H9" s="105">
-        <v>0</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="68">
         <v>9</v>
       </c>
@@ -7883,19 +8274,19 @@
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
       <c r="F10" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="64" t="s">
-        <v>265</v>
-      </c>
       <c r="H10" s="62">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I10" s="63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="68">
         <v>10</v>
       </c>
@@ -7908,10 +8299,10 @@
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
       <c r="F11" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="64" t="s">
         <v>264</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>265</v>
       </c>
       <c r="H11" s="62">
         <v>0</v>
@@ -7920,12 +8311,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="68">
         <v>11</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>64</v>
@@ -7933,10 +8324,10 @@
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
       <c r="F12" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="64" t="s">
         <v>264</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>265</v>
       </c>
       <c r="H12" s="62">
         <v>0</v>
@@ -7945,12 +8336,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="68">
         <v>12</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>64</v>
@@ -7958,10 +8349,10 @@
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="64" t="s">
         <v>264</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="62">
         <v>0</v>
@@ -7970,7 +8361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="68">
         <v>13</v>
       </c>
@@ -7983,10 +8374,10 @@
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
       <c r="F14" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="64" t="s">
         <v>264</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>265</v>
       </c>
       <c r="H14" s="62">
         <v>0</v>
@@ -7995,7 +8386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="68">
         <v>14</v>
       </c>
@@ -8008,10 +8399,10 @@
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
       <c r="F15" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="64" t="s">
         <v>264</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>265</v>
       </c>
       <c r="H15" s="62">
         <v>0</v>
@@ -8020,318 +8411,318 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="101">
+    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="92">
         <v>15</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="96">
+        <v>1</v>
+      </c>
+      <c r="I16" s="97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="92">
+        <v>16</v>
+      </c>
+      <c r="B17" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C17" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104" t="s">
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H16" s="105">
-        <v>1</v>
-      </c>
-      <c r="I16" s="106" t="s">
+      <c r="H17" s="96">
+        <v>1</v>
+      </c>
+      <c r="I17" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="101">
-        <v>16</v>
-      </c>
-      <c r="B17" s="102" t="s">
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="92">
+        <v>17</v>
+      </c>
+      <c r="B18" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C18" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104" t="s">
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H17" s="105">
-        <v>1</v>
-      </c>
-      <c r="I17" s="106" t="s">
+      <c r="H18" s="96">
+        <v>1</v>
+      </c>
+      <c r="I18" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="101">
-        <v>17</v>
-      </c>
-      <c r="B18" s="102" t="s">
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="92">
+        <v>18</v>
+      </c>
+      <c r="B19" s="93" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C19" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104" t="s">
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G18" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="105">
-        <v>1</v>
-      </c>
-      <c r="I18" s="106" t="s">
+      <c r="H19" s="96">
+        <v>1</v>
+      </c>
+      <c r="I19" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="101">
-        <v>18</v>
-      </c>
-      <c r="B19" s="102" t="s">
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="92">
+        <v>19</v>
+      </c>
+      <c r="B20" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C20" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104" t="s">
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G19" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H19" s="105">
-        <v>1</v>
-      </c>
-      <c r="I19" s="106" t="s">
+      <c r="H20" s="96">
+        <v>1</v>
+      </c>
+      <c r="I20" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="101">
-        <v>19</v>
-      </c>
-      <c r="B20" s="102" t="s">
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="92">
+        <v>20</v>
+      </c>
+      <c r="B21" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C21" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104" t="s">
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="96">
+        <v>1</v>
+      </c>
+      <c r="I21" s="97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="92">
+        <v>21</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" s="96">
+        <v>1</v>
+      </c>
+      <c r="I22" s="97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="92">
+        <v>22</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G20" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H20" s="105">
-        <v>1</v>
-      </c>
-      <c r="I20" s="106" t="s">
+      <c r="H23" s="96">
+        <v>1</v>
+      </c>
+      <c r="I23" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="101">
-        <v>20</v>
-      </c>
-      <c r="B21" s="102" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="103" t="s">
+    <row r="24" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="92">
+        <v>23</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104" t="s">
-        <v>282</v>
-      </c>
-      <c r="G21" s="104" t="s">
-        <v>283</v>
-      </c>
-      <c r="H21" s="105">
-        <v>1</v>
-      </c>
-      <c r="I21" s="106" t="s">
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H24" s="96">
+        <v>1</v>
+      </c>
+      <c r="I24" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="101">
-        <v>21</v>
-      </c>
-      <c r="B22" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="C22" s="103" t="s">
+    <row r="25" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="92">
+        <v>24</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104" t="s">
-        <v>284</v>
-      </c>
-      <c r="G22" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="H22" s="105">
-        <v>1</v>
-      </c>
-      <c r="I22" s="106" t="s">
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="96">
+        <v>1</v>
+      </c>
+      <c r="I25" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="101">
-        <v>22</v>
-      </c>
-      <c r="B23" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="103" t="s">
+    <row r="26" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="92">
+        <v>25</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104" t="s">
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G23" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H23" s="105">
-        <v>1</v>
-      </c>
-      <c r="I23" s="106" t="s">
+      <c r="H26" s="96">
+        <v>1</v>
+      </c>
+      <c r="I26" s="97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="101">
-        <v>23</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="103" t="s">
+    <row r="27" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="92">
+        <v>26</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104" t="s">
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H24" s="105">
-        <v>1</v>
-      </c>
-      <c r="I24" s="106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="101">
-        <v>24</v>
-      </c>
-      <c r="B25" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104" t="s">
-        <v>264</v>
-      </c>
-      <c r="G25" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H25" s="105">
-        <v>1</v>
-      </c>
-      <c r="I25" s="106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="101">
-        <v>25</v>
-      </c>
-      <c r="B26" s="102" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="105">
-        <v>1</v>
-      </c>
-      <c r="I26" s="106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="101">
-        <v>26</v>
-      </c>
-      <c r="B27" s="102" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="H27" s="105">
-        <v>1</v>
-      </c>
-      <c r="I27" s="106" t="s">
+      <c r="H27" s="96">
+        <v>1</v>
+      </c>
+      <c r="I27" s="97" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:E19 C23:E26 C28:E1048576 C1:E15 C16:C22">
-    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F8 F28:F1048576 F10:F26">
-    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8358,23 +8749,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E22">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:E27">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="1" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8401,7 +8792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8412,229 +8803,566 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2017</v>
-      </c>
-      <c r="D4" s="92">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="12" t="s">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="62">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="I2" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="68">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B3" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="62">
+        <v>0</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="68">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B4" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="62">
+        <v>0</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="68">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="62">
+        <v>0</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="68">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="B6" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="68">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="62">
+        <v>0</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" s="62">
+        <v>0</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="68">
+        <v>8</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="62">
+        <v>0</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="68">
         <v>9</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="16" t="s">
+      <c r="B10" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="68">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="16" t="s">
+      <c r="B11" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="68">
         <v>11</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="16" t="s">
+      <c r="B12" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="62">
+        <v>0</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="68">
         <v>12</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="16" t="s">
+      <c r="B13" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" s="62">
+        <v>0</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="68">
         <v>13</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="16" t="s">
+      <c r="B14" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="68">
         <v>14</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="16" t="s">
+      <c r="B15" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="62">
+        <v>0</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="68">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="16" t="s">
+      <c r="B16" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="62">
+        <v>0</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="68">
         <v>16</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="16" t="s">
+      <c r="B17" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" s="62">
+        <v>0</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="68">
         <v>17</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="16" t="s">
+      <c r="B18" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="62">
+        <v>0</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="68">
         <v>18</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="B19" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:K4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C20:E1048576 C1:E2 D3:E16 C3:C19">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8645,73 +9373,73 @@
   <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="26">
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11">
         <v>2017</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="99">
         <v>2018</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="27" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+    </row>
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="31" t="s">
-        <v>22</v>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -8719,11 +9447,11 @@
       <c r="J6" s="7"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="57"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
       <c r="F7" s="9"/>
@@ -8733,133 +9461,133 @@
       <c r="J7" s="9"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="32" t="s">
-        <v>24</v>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
-      <c r="F8" s="90"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="32" t="s">
-        <v>25</v>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="59"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="59"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="32" t="s">
-        <v>26</v>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="59"/>
       <c r="F10" s="90"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="32" t="s">
-        <v>27</v>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="59"/>
       <c r="F11" s="90"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="32" t="s">
-        <v>28</v>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="9"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="32" t="s">
-        <v>29</v>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="90"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="32" t="s">
-        <v>30</v>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="9"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="32" t="s">
-        <v>31</v>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="9"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="33" t="s">
-        <v>32</v>
+    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="91"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:K4"/>
@@ -8875,73 +9603,73 @@
   <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="24">
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="26">
         <v>2017</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="102">
         <v>2018</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="37" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="41" t="s">
-        <v>35</v>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="58"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -8949,9 +9677,9 @@
       <c r="J6" s="7"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="42" t="s">
-        <v>36</v>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="59"/>
@@ -8963,133 +9691,133 @@
       <c r="J7" s="9"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="42" t="s">
-        <v>37</v>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="42" t="s">
-        <v>38</v>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="59"/>
-      <c r="F9" s="90"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="42" t="s">
-        <v>39</v>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="42" t="s">
-        <v>40</v>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="42" t="s">
-        <v>41</v>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="59"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="59"/>
       <c r="F12" s="90"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="42" t="s">
-        <v>42</v>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="59"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="90"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="42" t="s">
-        <v>43</v>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="9"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="42" t="s">
-        <v>44</v>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="9"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="43" t="s">
-        <v>34</v>
+    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:K4"/>

--- a/TurtleBomb_개발일정.xlsx
+++ b/TurtleBomb_개발일정.xlsx
@@ -8806,7 +8806,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B19"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9046,7 +9046,7 @@
         <v>296</v>
       </c>
       <c r="H9" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="63" t="s">
         <v>65</v>

--- a/TurtleBomb_개발일정.xlsx
+++ b/TurtleBomb_개발일정.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="302">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,6 +1228,10 @@
   </si>
   <si>
     <t>Start 화면 캐릭터 Idle 애니를 통한 퀄업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲테마 Skybox 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2196,7 +2200,17 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3737,10 +3751,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4664,15 +4678,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C15:C16 C10:D12 C9 C19:C24 C25:D1048576 C1:D8">
-    <cfRule type="cellIs" dxfId="85" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="24" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="25" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E1:F12 E19:F1048576">
-    <cfRule type="containsText" dxfId="83" priority="23" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="84" priority="23" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4689,15 +4703,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D14 D15:D24">
-    <cfRule type="cellIs" dxfId="82" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F14">
-    <cfRule type="containsText" dxfId="80" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="81" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4724,15 +4738,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="10" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4759,15 +4773,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5916,15 +5930,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C26:D28 C33:D33 D32 C41:E1048576 C23:D23 C1:E19 C36:D40 E32:E40">
-    <cfRule type="cellIs" dxfId="73" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="53" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="54" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F23:F1048576">
-    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5941,10 +5955,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E25 E24:E29">
-    <cfRule type="cellIs" dxfId="70" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5959,63 +5973,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="68" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="44" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="45" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="cellIs" dxfId="66" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29">
-    <cfRule type="cellIs" dxfId="64" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="28" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="62" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D30">
-    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="20" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="21" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:D31 C32">
-    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E22">
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6042,18 +6056,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6977,39 +6991,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:D25 D22:D24 C34:E1048576 C28:D31 E22:E31 C1:E14 C16:E21">
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F1048576 F1:F4 F7:F13 F25:F31 F16:F22">
-    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7036,69 +7050,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="36" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7125,7 +7139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7944,15 +7958,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C31:E1048576 D18:E21 C18:C22 C1:E17">
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7979,18 +7993,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:E30">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8714,15 +8728,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:E19 C23:E26 C28:E1048576 C1:E15 C16:C22">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F8 F28:F1048576 F10:F26">
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8749,23 +8763,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E22">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:E27">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8792,7 +8806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8803,10 +8817,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8896,7 +8910,7 @@
         <v>296</v>
       </c>
       <c r="H3" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="63" t="s">
         <v>61</v>
@@ -9107,7 +9121,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>64</v>
@@ -9121,7 +9135,7 @@
         <v>296</v>
       </c>
       <c r="H12" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="63" t="s">
         <v>90</v>
@@ -9132,7 +9146,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>64</v>
@@ -9146,7 +9160,7 @@
         <v>296</v>
       </c>
       <c r="H13" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="63" t="s">
         <v>90</v>
@@ -9157,7 +9171,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>64</v>
@@ -9181,8 +9195,8 @@
       <c r="A15" s="68">
         <v>14</v>
       </c>
-      <c r="B15" s="98" t="s">
-        <v>288</v>
+      <c r="B15" s="61" t="s">
+        <v>294</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>64</v>
@@ -9206,8 +9220,8 @@
       <c r="A16" s="68">
         <v>15</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>289</v>
+      <c r="B16" s="98" t="s">
+        <v>288</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>64</v>
@@ -9232,7 +9246,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>64</v>
@@ -9257,7 +9271,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>64</v>
@@ -9282,7 +9296,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>64</v>
@@ -9302,23 +9316,48 @@
         <v>90</v>
       </c>
     </row>
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="68">
+        <v>19</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="62">
+        <v>0</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C20:E1048576 C1:E2 D3:E16 C3:C19">
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+  <conditionalFormatting sqref="C21:E1048576 C1:E2 D3:E17 C3:C20">
+    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="26" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="12-20">
+  <conditionalFormatting sqref="F1:F11 F13:F1048576">
+    <cfRule type="containsText" dxfId="7" priority="24" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9330,7 +9369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9339,28 +9378,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
-      <formula>"필수"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E18">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>"선택"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TurtleBomb_개발일정.xlsx
+++ b/TurtleBomb_개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="프로토타입 개발 일정(~12.25)" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="304">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1232,6 +1232,14 @@
   </si>
   <si>
     <t>숲테마 Skybox 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurtleBomb_Adventure_Boss_Table 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1295,7 +1303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1410,6 +1418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1871,7 +1885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2166,9 +2180,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,12 +2206,43 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3376,17 +3418,17 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.3984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>73</v>
       </c>
@@ -3412,7 +3454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -3436,7 +3478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -3460,7 +3502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
         <v>3</v>
       </c>
@@ -3484,7 +3526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -3508,7 +3550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="78">
         <v>5</v>
       </c>
@@ -3532,7 +3574,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -3556,7 +3598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="78">
         <v>7</v>
       </c>
@@ -3580,7 +3622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -3604,7 +3646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="78">
         <v>9</v>
       </c>
@@ -3628,7 +3670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -3652,7 +3694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="78">
         <v>11</v>
       </c>
@@ -3676,7 +3718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="76">
         <v>12</v>
       </c>
@@ -3700,7 +3742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="78">
         <v>13</v>
       </c>
@@ -3724,7 +3766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="76">
         <v>14</v>
       </c>
@@ -3751,10 +3793,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3781,32 +3823,32 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="24">
         <v>2017</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="104">
         <v>2018</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+    </row>
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="37" t="s">
         <v>0</v>
       </c>
@@ -3838,7 +3880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="41" t="s">
         <v>35</v>
       </c>
@@ -3852,7 +3894,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="42" t="s">
         <v>36</v>
       </c>
@@ -3866,7 +3908,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="42" t="s">
         <v>37</v>
       </c>
@@ -3880,7 +3922,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="42" t="s">
         <v>38</v>
       </c>
@@ -3894,7 +3936,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
         <v>39</v>
       </c>
@@ -3908,7 +3950,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="42" t="s">
         <v>40</v>
       </c>
@@ -3922,7 +3964,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="42" t="s">
         <v>41</v>
       </c>
@@ -3936,7 +3978,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="42" t="s">
         <v>42</v>
       </c>
@@ -3950,7 +3992,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="42" t="s">
         <v>43</v>
       </c>
@@ -3964,7 +4006,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
         <v>44</v>
       </c>
@@ -3978,7 +4020,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="43" t="s">
         <v>34</v>
       </c>
@@ -3992,7 +4034,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="45"/>
     </row>
-    <row r="17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:K4"/>
@@ -4014,18 +4056,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>73</v>
       </c>
@@ -4051,7 +4093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -4077,7 +4119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="78">
         <v>2</v>
       </c>
@@ -4103,7 +4145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
         <v>3</v>
       </c>
@@ -4129,7 +4171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="78">
         <v>4</v>
       </c>
@@ -4155,7 +4197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="78">
         <v>5</v>
       </c>
@@ -4181,7 +4223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="78">
         <v>6</v>
       </c>
@@ -4207,7 +4249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="78">
         <v>7</v>
       </c>
@@ -4233,7 +4275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="78">
         <v>8</v>
       </c>
@@ -4259,7 +4301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="51">
         <v>9</v>
       </c>
@@ -4285,7 +4327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="78">
         <v>10</v>
       </c>
@@ -4311,7 +4353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="78">
         <v>11</v>
       </c>
@@ -4337,7 +4379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="78">
         <v>12</v>
       </c>
@@ -4363,7 +4405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="78">
         <v>13</v>
       </c>
@@ -4389,7 +4431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="78">
         <v>14</v>
       </c>
@@ -4415,7 +4457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="78">
         <v>15</v>
       </c>
@@ -4441,7 +4483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="78">
         <v>16</v>
       </c>
@@ -4467,7 +4509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="78">
         <v>17</v>
       </c>
@@ -4493,7 +4535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
         <v>18</v>
       </c>
@@ -4519,7 +4561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="78">
         <v>19</v>
       </c>
@@ -4545,7 +4587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="78">
         <v>20</v>
       </c>
@@ -4571,7 +4613,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="78">
         <v>21</v>
       </c>
@@ -4597,7 +4639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="78">
         <v>22</v>
       </c>
@@ -4623,7 +4665,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="78">
         <v>23</v>
       </c>
@@ -4649,7 +4691,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="78">
         <v>24</v>
       </c>
@@ -4678,15 +4720,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C15:C16 C10:D12 C9 C19:C24 C25:D1048576 C1:D8">
-    <cfRule type="cellIs" dxfId="86" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="24" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="25" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E1:F12 E19:F1048576">
-    <cfRule type="containsText" dxfId="84" priority="23" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="85" priority="23" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4703,15 +4745,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D14 D15:D24">
-    <cfRule type="cellIs" dxfId="83" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F14">
-    <cfRule type="containsText" dxfId="81" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="82" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4738,15 +4780,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="80" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="10" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4773,15 +4815,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4835,19 +4877,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -4876,7 +4918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -4903,7 +4945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -4930,7 +4972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -4955,7 +4997,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -4982,7 +5024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -5007,7 +5049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -5034,7 +5076,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="76">
         <v>7</v>
       </c>
@@ -5061,7 +5103,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -5088,7 +5130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -5115,7 +5157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -5144,7 +5186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -5171,7 +5213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>12</v>
       </c>
@@ -5200,7 +5242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="76">
         <v>13</v>
       </c>
@@ -5229,7 +5271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="76">
         <v>14</v>
       </c>
@@ -5258,7 +5300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="76">
         <v>15</v>
       </c>
@@ -5287,7 +5329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>16</v>
       </c>
@@ -5312,7 +5354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>17</v>
       </c>
@@ -5337,7 +5379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>18</v>
       </c>
@@ -5362,7 +5404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="76">
         <v>19</v>
       </c>
@@ -5389,7 +5431,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="76">
         <v>20</v>
       </c>
@@ -5416,7 +5458,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="76">
         <v>21</v>
       </c>
@@ -5443,7 +5485,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="76">
         <v>22</v>
       </c>
@@ -5470,7 +5512,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="76">
         <v>23</v>
       </c>
@@ -5497,7 +5539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="76">
         <v>24</v>
       </c>
@@ -5524,7 +5566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="76">
         <v>25</v>
       </c>
@@ -5551,7 +5593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="76">
         <v>26</v>
       </c>
@@ -5578,7 +5620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="76">
         <v>27</v>
       </c>
@@ -5605,7 +5647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="76">
         <v>28</v>
       </c>
@@ -5632,7 +5674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="76">
         <v>29</v>
       </c>
@@ -5659,7 +5701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="76">
         <v>30</v>
       </c>
@@ -5686,7 +5728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="76">
         <v>31</v>
       </c>
@@ -5711,7 +5753,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="76">
         <v>32</v>
       </c>
@@ -5738,7 +5780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="76">
         <v>33</v>
       </c>
@@ -5765,7 +5807,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="76">
         <v>34</v>
       </c>
@@ -5792,7 +5834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="76">
         <v>35</v>
       </c>
@@ -5819,7 +5861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="76">
         <v>36</v>
       </c>
@@ -5846,7 +5888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>38</v>
       </c>
@@ -5873,7 +5915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="68">
         <v>39</v>
       </c>
@@ -5900,7 +5942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="68">
         <v>40</v>
       </c>
@@ -5930,15 +5972,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C26:D28 C33:D33 D32 C41:E1048576 C23:D23 C1:E19 C36:D40 E32:E40">
-    <cfRule type="cellIs" dxfId="74" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F23:F1048576">
-    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="73" priority="52" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5955,10 +5997,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E25 E24:E29">
-    <cfRule type="cellIs" dxfId="71" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5973,63 +6015,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="69" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="44" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="cellIs" dxfId="67" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29">
-    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="27" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="28" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="23" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="24" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D30">
-    <cfRule type="cellIs" dxfId="61" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="21" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:D31 C32">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E22">
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6056,18 +6098,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6087,19 +6129,19 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -6128,7 +6170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -6155,7 +6197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -6182,7 +6224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -6207,7 +6249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -6234,7 +6276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -6261,7 +6303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -6288,7 +6330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="76">
         <v>7</v>
       </c>
@@ -6313,7 +6355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -6340,7 +6382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="68">
         <v>9</v>
       </c>
@@ -6369,7 +6411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -6398,7 +6440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -6427,7 +6469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="76">
         <v>12</v>
       </c>
@@ -6454,7 +6496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="76">
         <v>13</v>
       </c>
@@ -6481,7 +6523,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="76">
         <v>14</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="76">
         <v>15</v>
       </c>
@@ -6535,7 +6577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="76">
         <v>16</v>
       </c>
@@ -6562,7 +6604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="76">
         <v>17</v>
       </c>
@@ -6589,7 +6631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>18</v>
       </c>
@@ -6614,7 +6656,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>19</v>
       </c>
@@ -6639,7 +6681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>20</v>
       </c>
@@ -6664,7 +6706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="76">
         <v>21</v>
       </c>
@@ -6691,7 +6733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="76">
         <v>22</v>
       </c>
@@ -6718,7 +6760,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="76">
         <v>23</v>
       </c>
@@ -6745,7 +6787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="76">
         <v>24</v>
       </c>
@@ -6772,7 +6814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="76">
         <v>25</v>
       </c>
@@ -6799,7 +6841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="76">
         <v>26</v>
       </c>
@@ -6826,7 +6868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="76">
         <v>27</v>
       </c>
@@ -6853,7 +6895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="76">
         <v>28</v>
       </c>
@@ -6880,7 +6922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>29</v>
       </c>
@@ -6907,7 +6949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="68">
         <v>30</v>
       </c>
@@ -6934,7 +6976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="76">
         <v>31</v>
       </c>
@@ -6961,7 +7003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="76">
         <v>32</v>
       </c>
@@ -6991,39 +7033,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:D25 D22:D24 C34:E1048576 C28:D31 E22:E31 C1:E14 C16:E21">
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F1048576 F1:F4 F7:F13 F25:F31 F16:F22">
-    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7050,69 +7092,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7139,7 +7181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7159,19 +7201,19 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -7200,7 +7242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -7227,7 +7269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -7254,7 +7296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -7281,7 +7323,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -7308,7 +7350,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -7335,7 +7377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -7360,7 +7402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -7385,7 +7427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -7410,7 +7452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -7435,7 +7477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -7462,7 +7504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="68">
         <v>11</v>
       </c>
@@ -7487,7 +7529,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>12</v>
       </c>
@@ -7512,7 +7554,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="68">
         <v>13</v>
       </c>
@@ -7537,7 +7579,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>14</v>
       </c>
@@ -7564,7 +7606,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="68">
         <v>15</v>
       </c>
@@ -7589,7 +7631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>16</v>
       </c>
@@ -7614,7 +7656,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="92">
         <v>17</v>
       </c>
@@ -7639,7 +7681,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="92">
         <v>18</v>
       </c>
@@ -7664,7 +7706,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="92">
         <v>19</v>
       </c>
@@ -7689,7 +7731,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="92">
         <v>20</v>
       </c>
@@ -7714,7 +7756,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="92">
         <v>21</v>
       </c>
@@ -7739,7 +7781,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="76">
         <v>22</v>
       </c>
@@ -7766,7 +7808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="76">
         <v>23</v>
       </c>
@@ -7793,7 +7835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="76">
         <v>24</v>
       </c>
@@ -7820,7 +7862,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="76">
         <v>25</v>
       </c>
@@ -7847,7 +7889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="76">
         <v>26</v>
       </c>
@@ -7874,7 +7916,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="76">
         <v>27</v>
       </c>
@@ -7901,7 +7943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="76">
         <v>28</v>
       </c>
@@ -7928,7 +7970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="76">
         <v>29</v>
       </c>
@@ -7958,15 +8000,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C31:E1048576 D18:E21 C18:C22 C1:E17">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7993,18 +8035,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:E30">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8024,19 +8066,19 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -8065,7 +8107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68">
         <v>1</v>
       </c>
@@ -8090,7 +8132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -8117,7 +8159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -8142,7 +8184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -8167,7 +8209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
         <v>5</v>
       </c>
@@ -8194,7 +8236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="92">
         <v>6</v>
       </c>
@@ -8221,7 +8263,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="92">
         <v>7</v>
       </c>
@@ -8248,7 +8290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -8275,7 +8317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="68">
         <v>9</v>
       </c>
@@ -8300,7 +8342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>10</v>
       </c>
@@ -8325,7 +8367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68">
         <v>11</v>
       </c>
@@ -8350,7 +8392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>12</v>
       </c>
@@ -8375,7 +8417,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68">
         <v>13</v>
       </c>
@@ -8400,7 +8442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>14</v>
       </c>
@@ -8425,7 +8467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="92">
         <v>15</v>
       </c>
@@ -8450,7 +8492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="92">
         <v>16</v>
       </c>
@@ -8475,7 +8517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="92">
         <v>17</v>
       </c>
@@ -8500,7 +8542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="92">
         <v>18</v>
       </c>
@@ -8525,7 +8567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="92">
         <v>19</v>
       </c>
@@ -8550,7 +8592,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="92">
         <v>20</v>
       </c>
@@ -8575,7 +8617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="92">
         <v>21</v>
       </c>
@@ -8600,7 +8642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="92">
         <v>22</v>
       </c>
@@ -8625,7 +8667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="92">
         <v>23</v>
       </c>
@@ -8650,7 +8692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92">
         <v>24</v>
       </c>
@@ -8675,7 +8717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="92">
         <v>25</v>
       </c>
@@ -8700,7 +8742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="92">
         <v>26</v>
       </c>
@@ -8728,15 +8770,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:E19 C23:E26 C28:E1048576 C1:E15 C16:C22">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F8 F28:F1048576 F10:F26">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8763,23 +8805,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E22">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:E27">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8806,7 +8848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8817,25 +8859,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
@@ -8864,7 +8906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68">
         <v>1</v>
       </c>
@@ -8891,32 +8933,32 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="68">
+    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="107">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="64" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="62">
-        <v>1</v>
-      </c>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="111">
+        <v>1</v>
+      </c>
+      <c r="I3" s="112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
         <v>3</v>
       </c>
@@ -8941,7 +8983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68">
         <v>4</v>
       </c>
@@ -8966,7 +9008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="68">
         <v>5</v>
       </c>
@@ -8991,7 +9033,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="68">
         <v>6</v>
       </c>
@@ -9016,7 +9058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="68">
         <v>7</v>
       </c>
@@ -9041,32 +9083,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="68">
+    <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="64" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="H9" s="62">
-        <v>1</v>
-      </c>
-      <c r="I9" s="63" t="s">
+      <c r="H9" s="111">
+        <v>1</v>
+      </c>
+      <c r="I9" s="112" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="68">
         <v>9</v>
       </c>
@@ -9091,7 +9133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>10</v>
       </c>
@@ -9116,57 +9158,57 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="68">
+    <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="107">
         <v>11</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="108" t="s">
         <v>301</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="64" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="H12" s="62">
-        <v>1</v>
-      </c>
-      <c r="I12" s="63" t="s">
+      <c r="H12" s="111">
+        <v>1</v>
+      </c>
+      <c r="I12" s="112" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="68">
+    <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="107">
         <v>12</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="64" t="s">
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="H13" s="62">
-        <v>1</v>
-      </c>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="111">
+        <v>1</v>
+      </c>
+      <c r="I13" s="112" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68">
         <v>13</v>
       </c>
@@ -9191,7 +9233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>14</v>
       </c>
@@ -9216,62 +9258,62 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="68">
+    <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="107">
         <v>15</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="110" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="111">
+        <v>1</v>
+      </c>
+      <c r="I16" s="112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="107">
+        <v>16</v>
+      </c>
+      <c r="B17" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C17" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="64" t="s">
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G17" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="62">
-        <v>0</v>
-      </c>
-      <c r="I16" s="63" t="s">
+      <c r="H17" s="111">
+        <v>1</v>
+      </c>
+      <c r="I17" s="112" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="68">
-        <v>16</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" s="62">
-        <v>0</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>17</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>64</v>
@@ -9291,12 +9333,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>18</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>64</v>
@@ -9316,12 +9358,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>19</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>64</v>
@@ -9341,23 +9383,48 @@
         <v>90</v>
       </c>
     </row>
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="68">
+        <v>20</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H21" s="62">
+        <v>0</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C21:E1048576 C1:E2 D3:E17 C3:C20">
-    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
+  <conditionalFormatting sqref="C22:E1048576 C1:E2 D3:E18 C3:C21">
+    <cfRule type="cellIs" dxfId="10" priority="34" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 F13:F1048576">
-    <cfRule type="containsText" dxfId="7" priority="24" operator="containsText" text="12-20">
+  <conditionalFormatting sqref="F1:F11 F13:F15 F17:F1048576">
+    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="H1:H15 H17:H1048576">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9368,8 +9435,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="H1:H15 H17:H1048576">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9378,33 +9445,60 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E18">
-    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
-      <formula>"필수"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
-      <formula>"선택"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9420,32 +9514,32 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="11">
         <v>2017</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="98">
         <v>2018</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
+    </row>
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -9477,7 +9571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>45</v>
       </c>
@@ -9491,7 +9585,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
@@ -9505,7 +9599,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
@@ -9519,7 +9613,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
@@ -9533,7 +9627,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
@@ -9547,7 +9641,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
@@ -9561,7 +9655,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
@@ -9575,7 +9669,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
@@ -9589,7 +9683,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
@@ -9603,7 +9697,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
@@ -9617,7 +9711,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
@@ -9631,7 +9725,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:K4"/>
@@ -9650,32 +9744,32 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="26">
         <v>2017</v>
       </c>
-      <c r="D4" s="102">
+      <c r="D4" s="101">
         <v>2018</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
+    </row>
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
@@ -9707,7 +9801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>22</v>
       </c>
@@ -9721,7 +9815,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>23</v>
       </c>
@@ -9735,7 +9829,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>24</v>
       </c>
@@ -9749,7 +9843,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="32" t="s">
         <v>25</v>
       </c>
@@ -9763,7 +9857,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>26</v>
       </c>
@@ -9777,7 +9871,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
         <v>27</v>
       </c>
@@ -9791,7 +9885,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
         <v>28</v>
       </c>
@@ -9805,7 +9899,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>29</v>
       </c>
@@ -9819,7 +9913,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
         <v>30</v>
       </c>
@@ -9833,7 +9927,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>31</v>
       </c>
@@ -9847,7 +9941,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
         <v>32</v>
       </c>
@@ -9861,7 +9955,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:K4"/>

--- a/TurtleBomb_개발일정.xlsx
+++ b/TurtleBomb_개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로토타입 개발 일정(~12.25)" sheetId="8" r:id="rId1"/>
@@ -19,9 +19,12 @@
     <sheet name="4차 개발 일정(~3.2)" sheetId="11" r:id="rId5"/>
     <sheet name="5차 개발 일정(~3.12)" sheetId="12" r:id="rId6"/>
     <sheet name="6차 개발 일정(~3.26)" sheetId="13" r:id="rId7"/>
-    <sheet name="장동필" sheetId="1" r:id="rId8"/>
-    <sheet name="김성일" sheetId="4" r:id="rId9"/>
-    <sheet name="송형종" sheetId="5" r:id="rId10"/>
+    <sheet name="7차 개발 일정(~4.10)" sheetId="14" r:id="rId8"/>
+    <sheet name="8차 개발 일정(~4.23)" sheetId="15" r:id="rId9"/>
+    <sheet name="9차 개발 일정(~4.23)" sheetId="16" r:id="rId10"/>
+    <sheet name="장동필" sheetId="1" r:id="rId11"/>
+    <sheet name="김성일" sheetId="4" r:id="rId12"/>
+    <sheet name="송형종" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="330">
   <si>
     <t>개발 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1240,6 +1243,110 @@
   </si>
   <si>
     <t>필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-09 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-27 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험모드 시나리오 String Table 제작 초안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쟁 모드 진입 후 방만들기 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터 모델링 신규 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄 폭파 범위 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장동필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-22 (일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Table 튜토리얼 관련 정보 추가(트리거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Spawn_Table 튜토리얼 스테이지 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Table 튜토리얼 스테이지 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventure_Quest_Table 튜토리얼 관련 목표 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기방 UI제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터 모델링 텍스쳐 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-11 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-24 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터 리깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드 선텍 UI 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 선택 UI 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어드랍 적용 (임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임방 - 모드 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임방 - 팀 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임방 - 맵 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드 선택 UI 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 선텍 UI 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1414,18 +1521,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1879,13 +1986,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2117,9 +2235,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2138,9 +2253,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2162,6 +2274,33 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2180,31 +2319,31 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,14 +2364,214 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="110">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3415,7 +3754,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3455,26 +3794,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78">
-        <v>1</v>
-      </c>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="77">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="82">
-        <v>1</v>
-      </c>
-      <c r="H2" s="83" t="s">
+      <c r="G2" s="81">
+        <v>1</v>
+      </c>
+      <c r="H2" s="82" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3503,7 +3842,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="78">
+      <c r="A4" s="77">
         <v>3</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -3551,7 +3890,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="78">
+      <c r="A6" s="77">
         <v>5</v>
       </c>
       <c r="B6" s="71" t="s">
@@ -3599,7 +3938,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="78">
+      <c r="A8" s="77">
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
@@ -3647,7 +3986,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="78">
+      <c r="A10" s="77">
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
@@ -3695,7 +4034,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="78">
+      <c r="A12" s="77">
         <v>11</v>
       </c>
       <c r="B12" s="71" t="s">
@@ -3743,7 +4082,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="78">
+      <c r="A14" s="77">
         <v>13</v>
       </c>
       <c r="B14" s="71" t="s">
@@ -3770,33 +4109,33 @@
       <c r="A15" s="76">
         <v>14</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="84"/>
+      <c r="E15" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="88">
-        <v>1</v>
-      </c>
-      <c r="H15" s="89" t="s">
+      <c r="G15" s="86">
+        <v>1</v>
+      </c>
+      <c r="H15" s="87" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3816,6 +4155,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="64"/>
+      <c r="H2" s="62">
+        <v>1</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68">
+        <v>2</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="62">
+        <v>1</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="62">
+        <v>1</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68">
+        <v>4</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" s="64"/>
+      <c r="H5" s="62">
+        <v>1</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="62">
+        <v>1</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="62">
+        <v>1</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="62">
+        <v>1</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="68">
+        <v>7</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62">
+        <v>1</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="68">
+        <v>7</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="62">
+        <v>1</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="68">
+        <v>7</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="62">
+        <v>1</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="68">
+        <v>7</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="62">
+        <v>1</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="68">
+        <v>7</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="62">
+        <v>1</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="68">
+        <v>7</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="62">
+        <v>1</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="68">
+        <v>7</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="62">
+        <v>1</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="68">
+        <v>7</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="62">
+        <v>1</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="68">
+        <v>7</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="62">
+        <v>1</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="68">
+        <v>7</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="62">
+        <v>1</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="68">
+        <v>7</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="64"/>
+      <c r="H19" s="62">
+        <v>1</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="68">
+        <v>7</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="62">
+        <v>1</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="68">
+        <v>7</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="62">
+        <v>1</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="68">
+        <v>7</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="62">
+        <v>1</v>
+      </c>
+      <c r="I22" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C23:E1048576 C1:E2 D4:E7 C4:C22">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H2 H4:H1048576">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H2 H4:H1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E22">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:E3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="90">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
+    </row>
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="93">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+    </row>
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K17"/>
   <sheetViews>
@@ -3837,16 +5220,16 @@
       <c r="C4" s="24">
         <v>2017</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="96">
         <v>2018</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
     </row>
     <row r="5" spans="2:11" s="2" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="37" t="s">
@@ -3929,7 +5312,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="59"/>
-      <c r="F9" s="90"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -3971,7 +5354,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="59"/>
       <c r="E12" s="59"/>
-      <c r="F12" s="90"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -3985,7 +5368,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="90"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="5"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -3999,7 +5382,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="90"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -4052,8 +5435,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4094,210 +5477,210 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78">
-        <v>1</v>
-      </c>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="107">
+        <v>1</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="82">
-        <v>1</v>
-      </c>
-      <c r="H2" s="83" t="s">
+      <c r="G2" s="111">
+        <v>1</v>
+      </c>
+      <c r="H2" s="112" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="78">
+      <c r="A3" s="107">
         <v>2</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="82">
-        <v>1</v>
-      </c>
-      <c r="H3" s="83" t="s">
+      <c r="G3" s="111">
+        <v>1</v>
+      </c>
+      <c r="H3" s="112" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="78">
+      <c r="A4" s="107">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="74">
-        <v>1</v>
-      </c>
-      <c r="H4" s="83" t="s">
+      <c r="G4" s="103">
+        <v>1</v>
+      </c>
+      <c r="H4" s="112" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="78">
+      <c r="A5" s="107">
         <v>4</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="74">
-        <v>1</v>
-      </c>
-      <c r="H5" s="83" t="s">
+      <c r="G5" s="103">
+        <v>1</v>
+      </c>
+      <c r="H5" s="112" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="78">
+      <c r="A6" s="107">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="74">
-        <v>1</v>
-      </c>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="103">
+        <v>1</v>
+      </c>
+      <c r="H6" s="112" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="78">
+      <c r="A7" s="107">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="74">
-        <v>1</v>
-      </c>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="103">
+        <v>1</v>
+      </c>
+      <c r="H7" s="112" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="78">
+      <c r="A8" s="107">
         <v>7</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="74">
-        <v>1</v>
-      </c>
-      <c r="H8" s="83" t="s">
+      <c r="G8" s="103">
+        <v>1</v>
+      </c>
+      <c r="H8" s="112" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="78">
+      <c r="A9" s="107">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="74">
-        <v>1</v>
-      </c>
-      <c r="H9" s="75" t="s">
+      <c r="G9" s="103">
+        <v>1</v>
+      </c>
+      <c r="H9" s="104" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4328,407 +5711,407 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="78">
+      <c r="A11" s="107">
         <v>10</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="74">
-        <v>1</v>
-      </c>
-      <c r="H11" s="75" t="s">
+      <c r="G11" s="103">
+        <v>1</v>
+      </c>
+      <c r="H11" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="78">
+      <c r="A12" s="107">
         <v>11</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="74">
-        <v>1</v>
-      </c>
-      <c r="H12" s="75" t="s">
+      <c r="G12" s="103">
+        <v>1</v>
+      </c>
+      <c r="H12" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="78">
+      <c r="A13" s="107">
         <v>12</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="74">
-        <v>1</v>
-      </c>
-      <c r="H13" s="75" t="s">
+      <c r="G13" s="103">
+        <v>1</v>
+      </c>
+      <c r="H13" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="78">
+      <c r="A14" s="107">
         <v>13</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="74">
-        <v>1</v>
-      </c>
-      <c r="H14" s="75" t="s">
+      <c r="G14" s="103">
+        <v>1</v>
+      </c>
+      <c r="H14" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="78">
+      <c r="A15" s="107">
         <v>14</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="74">
-        <v>1</v>
-      </c>
-      <c r="H15" s="75" t="s">
+      <c r="G15" s="103">
+        <v>1</v>
+      </c>
+      <c r="H15" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="78">
+      <c r="A16" s="107">
         <v>15</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="74">
-        <v>1</v>
-      </c>
-      <c r="H16" s="75" t="s">
+      <c r="G16" s="103">
+        <v>1</v>
+      </c>
+      <c r="H16" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="78">
+      <c r="A17" s="107">
         <v>16</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="74">
-        <v>1</v>
-      </c>
-      <c r="H17" s="75" t="s">
+      <c r="G17" s="103">
+        <v>1</v>
+      </c>
+      <c r="H17" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="78">
+      <c r="A18" s="107">
         <v>17</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="74">
-        <v>1</v>
-      </c>
-      <c r="H18" s="75" t="s">
+      <c r="G18" s="103">
+        <v>1</v>
+      </c>
+      <c r="H18" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="78">
+      <c r="A19" s="107">
         <v>18</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="74">
-        <v>1</v>
-      </c>
-      <c r="H19" s="75" t="s">
+      <c r="G19" s="103">
+        <v>1</v>
+      </c>
+      <c r="H19" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="78">
+      <c r="A20" s="107">
         <v>19</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="74">
-        <v>1</v>
-      </c>
-      <c r="H20" s="75" t="s">
+      <c r="G20" s="103">
+        <v>1</v>
+      </c>
+      <c r="H20" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="78">
+      <c r="A21" s="107">
         <v>20</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="74">
-        <v>1</v>
-      </c>
-      <c r="H21" s="75" t="s">
+      <c r="G21" s="103">
+        <v>1</v>
+      </c>
+      <c r="H21" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="78">
+      <c r="A22" s="107">
         <v>21</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="74">
-        <v>1</v>
-      </c>
-      <c r="H22" s="75" t="s">
+      <c r="G22" s="103">
+        <v>1</v>
+      </c>
+      <c r="H22" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="78">
+      <c r="A23" s="107">
         <v>22</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="74">
-        <v>1</v>
-      </c>
-      <c r="H23" s="75" t="s">
+      <c r="G23" s="103">
+        <v>1</v>
+      </c>
+      <c r="H23" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="78">
+      <c r="A24" s="107">
         <v>23</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="74">
-        <v>1</v>
-      </c>
-      <c r="H24" s="75" t="s">
+      <c r="G24" s="103">
+        <v>1</v>
+      </c>
+      <c r="H24" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="78">
+      <c r="A25" s="107">
         <v>24</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="74">
-        <v>1</v>
-      </c>
-      <c r="H25" s="75" t="s">
+      <c r="G25" s="103">
+        <v>1</v>
+      </c>
+      <c r="H25" s="104" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C15:C16 C10:D12 C9 C19:C24 C25:D1048576 C1:D8">
-    <cfRule type="cellIs" dxfId="87" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="24" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="25" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E1:F12 E19:F1048576">
-    <cfRule type="containsText" dxfId="85" priority="23" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4745,15 +6128,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D14 D15:D24">
-    <cfRule type="cellIs" dxfId="84" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F14">
-    <cfRule type="containsText" dxfId="82" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="102" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4780,15 +6163,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="81" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="10" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="11" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4815,15 +6198,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="96" priority="4" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4874,7 +6257,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4919,297 +6302,297 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="76">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="74">
-        <v>1</v>
-      </c>
-      <c r="I2" s="75" t="s">
+      <c r="H2" s="103">
+        <v>1</v>
+      </c>
+      <c r="I2" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="76">
+      <c r="A3" s="99">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="74">
-        <v>1</v>
-      </c>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="103">
+        <v>1</v>
+      </c>
+      <c r="I3" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="76">
+      <c r="A4" s="99">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="74">
-        <v>1</v>
-      </c>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="103">
+        <v>1</v>
+      </c>
+      <c r="I4" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="76">
+      <c r="A5" s="99">
         <v>4</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="74">
-        <v>1</v>
-      </c>
-      <c r="I5" s="75" t="s">
+      <c r="H5" s="103">
+        <v>1</v>
+      </c>
+      <c r="I5" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="76">
+      <c r="A6" s="99">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="74">
-        <v>1</v>
-      </c>
-      <c r="I6" s="75" t="s">
+      <c r="H6" s="103">
+        <v>1</v>
+      </c>
+      <c r="I6" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="76">
+      <c r="A7" s="99">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="101"/>
+      <c r="E7" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="74">
-        <v>1</v>
-      </c>
-      <c r="I7" s="75" t="s">
+      <c r="H7" s="103">
+        <v>1</v>
+      </c>
+      <c r="I7" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="76">
+      <c r="A8" s="99">
         <v>7</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="74">
-        <v>1</v>
-      </c>
-      <c r="I8" s="75" t="s">
+      <c r="H8" s="103">
+        <v>1</v>
+      </c>
+      <c r="I8" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="76">
+      <c r="A9" s="99">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H9" s="74">
-        <v>1</v>
-      </c>
-      <c r="I9" s="75" t="s">
+      <c r="H9" s="103">
+        <v>1</v>
+      </c>
+      <c r="I9" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="76">
+      <c r="A10" s="99">
         <v>9</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73" t="s">
+      <c r="E10" s="101"/>
+      <c r="F10" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="74">
-        <v>1</v>
-      </c>
-      <c r="I10" s="75" t="s">
+      <c r="H10" s="103">
+        <v>1</v>
+      </c>
+      <c r="I10" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="76">
+      <c r="A11" s="99">
         <v>10</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="74">
-        <v>1</v>
-      </c>
-      <c r="I11" s="75" t="s">
+      <c r="H11" s="103">
+        <v>1</v>
+      </c>
+      <c r="I11" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="76">
+      <c r="A12" s="99">
         <v>11</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73" t="s">
+      <c r="E12" s="101"/>
+      <c r="F12" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="74">
-        <v>1</v>
-      </c>
-      <c r="I12" s="75" t="s">
+      <c r="H12" s="103">
+        <v>1</v>
+      </c>
+      <c r="I12" s="104" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5243,89 +6626,89 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="76">
+      <c r="A14" s="99">
         <v>13</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="74">
-        <v>1</v>
-      </c>
-      <c r="I14" s="75" t="s">
+      <c r="H14" s="103">
+        <v>1</v>
+      </c>
+      <c r="I14" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="76">
+      <c r="A15" s="99">
         <v>14</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="74">
-        <v>1</v>
-      </c>
-      <c r="I15" s="75" t="s">
+      <c r="H15" s="103">
+        <v>1</v>
+      </c>
+      <c r="I15" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="76">
+      <c r="A16" s="99">
         <v>15</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="74">
-        <v>1</v>
-      </c>
-      <c r="I16" s="75" t="s">
+      <c r="H16" s="103">
+        <v>1</v>
+      </c>
+      <c r="I16" s="104" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5405,486 +6788,486 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="76">
+      <c r="A20" s="99">
         <v>19</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="74">
-        <v>1</v>
-      </c>
-      <c r="I20" s="75" t="s">
+      <c r="H20" s="103">
+        <v>1</v>
+      </c>
+      <c r="I20" s="104" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="76">
+      <c r="A21" s="99">
         <v>20</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="74">
-        <v>1</v>
-      </c>
-      <c r="I21" s="75" t="s">
+      <c r="H21" s="103">
+        <v>1</v>
+      </c>
+      <c r="I21" s="104" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="76">
+      <c r="A22" s="99">
         <v>21</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="74">
-        <v>1</v>
-      </c>
-      <c r="I22" s="75" t="s">
+      <c r="H22" s="103">
+        <v>1</v>
+      </c>
+      <c r="I22" s="104" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="76">
+      <c r="A23" s="99">
         <v>22</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="74">
-        <v>1</v>
-      </c>
-      <c r="I23" s="75" t="s">
+      <c r="H23" s="103">
+        <v>1</v>
+      </c>
+      <c r="I23" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="76">
+      <c r="A24" s="99">
         <v>23</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H24" s="74">
-        <v>1</v>
-      </c>
-      <c r="I24" s="75" t="s">
+      <c r="H24" s="103">
+        <v>1</v>
+      </c>
+      <c r="I24" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="76">
+      <c r="A25" s="99">
         <v>24</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="74">
-        <v>1</v>
-      </c>
-      <c r="I25" s="75" t="s">
+      <c r="H25" s="103">
+        <v>1</v>
+      </c>
+      <c r="I25" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="76">
+      <c r="A26" s="99">
         <v>25</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="74">
-        <v>1</v>
-      </c>
-      <c r="I26" s="75" t="s">
+      <c r="H26" s="103">
+        <v>1</v>
+      </c>
+      <c r="I26" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="76">
+      <c r="A27" s="99">
         <v>26</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H27" s="74">
-        <v>1</v>
-      </c>
-      <c r="I27" s="75" t="s">
+      <c r="H27" s="103">
+        <v>1</v>
+      </c>
+      <c r="I27" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="76">
+      <c r="A28" s="99">
         <v>27</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72" t="s">
+      <c r="D28" s="101"/>
+      <c r="E28" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="73" t="s">
+      <c r="G28" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="74">
-        <v>1</v>
-      </c>
-      <c r="I28" s="75" t="s">
+      <c r="H28" s="103">
+        <v>1</v>
+      </c>
+      <c r="I28" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="76">
+      <c r="A29" s="99">
         <v>28</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72" t="s">
+      <c r="D29" s="101"/>
+      <c r="E29" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="F29" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H29" s="74">
-        <v>1</v>
-      </c>
-      <c r="I29" s="75" t="s">
+      <c r="H29" s="103">
+        <v>1</v>
+      </c>
+      <c r="I29" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="76">
+      <c r="A30" s="99">
         <v>29</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72" t="s">
+      <c r="D30" s="101"/>
+      <c r="E30" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="74">
-        <v>1</v>
-      </c>
-      <c r="I30" s="75" t="s">
+      <c r="H30" s="103">
+        <v>1</v>
+      </c>
+      <c r="I30" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="76">
+      <c r="A31" s="99">
         <v>30</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72" t="s">
+      <c r="D31" s="101"/>
+      <c r="E31" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="73" t="s">
+      <c r="F31" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="74">
-        <v>1</v>
-      </c>
-      <c r="I31" s="75" t="s">
+      <c r="H31" s="103">
+        <v>1</v>
+      </c>
+      <c r="I31" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="76">
+      <c r="A32" s="99">
         <v>31</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73" t="s">
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H32" s="74">
-        <v>1</v>
-      </c>
-      <c r="I32" s="75" t="s">
+      <c r="H32" s="103">
+        <v>1</v>
+      </c>
+      <c r="I32" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="76">
+      <c r="A33" s="99">
         <v>32</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72" t="s">
+      <c r="D33" s="101"/>
+      <c r="E33" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="73" t="s">
+      <c r="G33" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H33" s="74">
-        <v>1</v>
-      </c>
-      <c r="I33" s="75" t="s">
+      <c r="H33" s="103">
+        <v>1</v>
+      </c>
+      <c r="I33" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="76">
+      <c r="A34" s="99">
         <v>33</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72" t="s">
+      <c r="D34" s="101"/>
+      <c r="E34" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H34" s="74">
-        <v>1</v>
-      </c>
-      <c r="I34" s="75" t="s">
+      <c r="H34" s="103">
+        <v>1</v>
+      </c>
+      <c r="I34" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="76">
+      <c r="A35" s="99">
         <v>34</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72" t="s">
+      <c r="D35" s="101"/>
+      <c r="E35" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="74">
-        <v>1</v>
-      </c>
-      <c r="I35" s="75" t="s">
+      <c r="H35" s="103">
+        <v>1</v>
+      </c>
+      <c r="I35" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="76">
+      <c r="A36" s="99">
         <v>35</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72" t="s">
+      <c r="D36" s="101"/>
+      <c r="E36" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F36" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="74">
-        <v>1</v>
-      </c>
-      <c r="I36" s="75" t="s">
+      <c r="H36" s="103">
+        <v>1</v>
+      </c>
+      <c r="I36" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="76">
+      <c r="A37" s="99">
         <v>36</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72" t="s">
+      <c r="D37" s="101"/>
+      <c r="E37" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="73" t="s">
+      <c r="F37" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H37" s="74">
-        <v>1</v>
-      </c>
-      <c r="I37" s="75" t="s">
+      <c r="H37" s="103">
+        <v>1</v>
+      </c>
+      <c r="I37" s="104" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5972,15 +7355,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C26:D28 C33:D33 D32 C41:E1048576 C23:D23 C1:E19 C36:D40 E32:E40">
-    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="53" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="54" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F23:F1048576">
-    <cfRule type="containsText" dxfId="73" priority="52" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="93" priority="52" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5997,10 +7380,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E25 E24:E29">
-    <cfRule type="cellIs" dxfId="72" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6015,63 +7398,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="cellIs" dxfId="70" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="44" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="45" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="cellIs" dxfId="68" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D29">
-    <cfRule type="cellIs" dxfId="66" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="27" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="28" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="64" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="23" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="24" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D30">
-    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:D31 C32">
-    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="15" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="16" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E22">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6098,18 +7481,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6125,8 +7508,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6171,214 +7554,214 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="76">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="74">
-        <v>1</v>
-      </c>
-      <c r="I2" s="75" t="s">
+      <c r="H2" s="103">
+        <v>1</v>
+      </c>
+      <c r="I2" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="76">
+      <c r="A3" s="99">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="74">
-        <v>1</v>
-      </c>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="103">
+        <v>1</v>
+      </c>
+      <c r="I3" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="76">
+      <c r="A4" s="99">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="74">
-        <v>1</v>
-      </c>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="103">
+        <v>1</v>
+      </c>
+      <c r="I4" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="76">
+      <c r="A5" s="99">
         <v>4</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="74">
-        <v>1</v>
-      </c>
-      <c r="I5" s="75" t="s">
+      <c r="H5" s="103">
+        <v>1</v>
+      </c>
+      <c r="I5" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="76">
+      <c r="A6" s="99">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="77" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="74">
-        <v>1</v>
-      </c>
-      <c r="I6" s="75" t="s">
+      <c r="H6" s="103">
+        <v>1</v>
+      </c>
+      <c r="I6" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="76">
+      <c r="A7" s="99">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="101"/>
+      <c r="E7" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="74">
-        <v>1</v>
-      </c>
-      <c r="I7" s="75" t="s">
+      <c r="H7" s="103">
+        <v>1</v>
+      </c>
+      <c r="I7" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76">
+      <c r="A8" s="99">
         <v>7</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="74">
-        <v>1</v>
-      </c>
-      <c r="I8" s="75" t="s">
+      <c r="H8" s="103">
+        <v>1</v>
+      </c>
+      <c r="I8" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="76">
+      <c r="A9" s="99">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="74">
-        <v>1</v>
-      </c>
-      <c r="I9" s="75" t="s">
+      <c r="H9" s="103">
+        <v>1</v>
+      </c>
+      <c r="I9" s="104" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6412,222 +7795,222 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="76">
+      <c r="A11" s="99">
         <v>10</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="74">
-        <v>1</v>
-      </c>
-      <c r="I11" s="75" t="s">
+      <c r="H11" s="103">
+        <v>1</v>
+      </c>
+      <c r="I11" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="76">
+      <c r="A12" s="99">
         <v>11</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H12" s="74">
-        <v>1</v>
-      </c>
-      <c r="I12" s="75" t="s">
+      <c r="H12" s="103">
+        <v>1</v>
+      </c>
+      <c r="I12" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="76">
+      <c r="A13" s="99">
         <v>12</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73" t="s">
+      <c r="E13" s="101"/>
+      <c r="F13" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="74">
-        <v>1</v>
-      </c>
-      <c r="I13" s="75" t="s">
+      <c r="H13" s="103">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="76">
+      <c r="A14" s="99">
         <v>13</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="100" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73" t="s">
+      <c r="E14" s="101"/>
+      <c r="F14" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="74">
-        <v>1</v>
-      </c>
-      <c r="I14" s="75" t="s">
+      <c r="H14" s="103">
+        <v>1</v>
+      </c>
+      <c r="I14" s="104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="76">
+      <c r="A15" s="99">
         <v>14</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="74">
-        <v>1</v>
-      </c>
-      <c r="I15" s="75" t="s">
+      <c r="H15" s="103">
+        <v>1</v>
+      </c>
+      <c r="I15" s="104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="76">
+      <c r="A16" s="99">
         <v>15</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="74">
-        <v>1</v>
-      </c>
-      <c r="I16" s="75" t="s">
+      <c r="H16" s="103">
+        <v>1</v>
+      </c>
+      <c r="I16" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="76">
+      <c r="A17" s="99">
         <v>16</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="74">
-        <v>1</v>
-      </c>
-      <c r="I17" s="75" t="s">
+      <c r="H17" s="103">
+        <v>1</v>
+      </c>
+      <c r="I17" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="76">
+      <c r="A18" s="99">
         <v>17</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G18" s="73" t="s">
+      <c r="G18" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="74">
-        <v>1</v>
-      </c>
-      <c r="I18" s="75" t="s">
+      <c r="H18" s="103">
+        <v>1</v>
+      </c>
+      <c r="I18" s="104" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6707,218 +8090,218 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="76">
+      <c r="A22" s="99">
         <v>21</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H22" s="74">
-        <v>1</v>
-      </c>
-      <c r="I22" s="75" t="s">
+      <c r="H22" s="103">
+        <v>1</v>
+      </c>
+      <c r="I22" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="76">
+      <c r="A23" s="99">
         <v>22</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="74">
-        <v>1</v>
-      </c>
-      <c r="I23" s="75" t="s">
+      <c r="H23" s="103">
+        <v>1</v>
+      </c>
+      <c r="I23" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="76">
+      <c r="A24" s="99">
         <v>23</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H24" s="74">
-        <v>1</v>
-      </c>
-      <c r="I24" s="75" t="s">
+      <c r="H24" s="103">
+        <v>1</v>
+      </c>
+      <c r="I24" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="76">
+      <c r="A25" s="99">
         <v>24</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H25" s="74">
-        <v>1</v>
-      </c>
-      <c r="I25" s="75" t="s">
+      <c r="H25" s="103">
+        <v>1</v>
+      </c>
+      <c r="I25" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="76">
+      <c r="A26" s="99">
         <v>25</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H26" s="74">
-        <v>1</v>
-      </c>
-      <c r="I26" s="75" t="s">
+      <c r="H26" s="103">
+        <v>1</v>
+      </c>
+      <c r="I26" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="76">
+      <c r="A27" s="99">
         <v>26</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="74">
-        <v>1</v>
-      </c>
-      <c r="I27" s="75" t="s">
+      <c r="H27" s="103">
+        <v>1</v>
+      </c>
+      <c r="I27" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="76">
+      <c r="A28" s="99">
         <v>27</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72" t="s">
+      <c r="D28" s="101"/>
+      <c r="E28" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G28" s="73" t="s">
+      <c r="G28" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H28" s="74">
-        <v>1</v>
-      </c>
-      <c r="I28" s="75" t="s">
+      <c r="H28" s="103">
+        <v>1</v>
+      </c>
+      <c r="I28" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="76">
+      <c r="A29" s="99">
         <v>28</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72" t="s">
+      <c r="D29" s="101"/>
+      <c r="E29" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="F29" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H29" s="74">
-        <v>1</v>
-      </c>
-      <c r="I29" s="75" t="s">
+      <c r="H29" s="103">
+        <v>1</v>
+      </c>
+      <c r="I29" s="104" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6977,95 +8360,95 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="76">
+      <c r="A32" s="99">
         <v>31</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73" t="s">
+      <c r="E32" s="101"/>
+      <c r="F32" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H32" s="74">
-        <v>1</v>
-      </c>
-      <c r="I32" s="75" t="s">
+      <c r="H32" s="103">
+        <v>1</v>
+      </c>
+      <c r="I32" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="76">
+      <c r="A33" s="99">
         <v>32</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="73" t="s">
+      <c r="E33" s="101"/>
+      <c r="F33" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="G33" s="73" t="s">
+      <c r="G33" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="74">
-        <v>1</v>
-      </c>
-      <c r="I33" s="75" t="s">
+      <c r="H33" s="103">
+        <v>1</v>
+      </c>
+      <c r="I33" s="104" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C25:D25 D22:D24 C34:E1048576 C28:D31 E22:E31 C1:E14 C16:E21">
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="56" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="57" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F1048576 F1:F4 F7:F13 F25:F31 F16:F22">
-    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="69" priority="55" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="49" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="50" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="47" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="48" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="39" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="40" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7092,69 +8475,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33">
-    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="21" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="22" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="50" priority="6" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7181,7 +8564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7197,8 +8580,8 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7243,162 +8626,162 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="76">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="74">
-        <v>1</v>
-      </c>
-      <c r="I2" s="75" t="s">
+      <c r="H2" s="103">
+        <v>1</v>
+      </c>
+      <c r="I2" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="76">
+      <c r="A3" s="99">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="74">
-        <v>1</v>
-      </c>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="103">
+        <v>1</v>
+      </c>
+      <c r="I3" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="76">
+      <c r="A4" s="99">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="77" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="74">
-        <v>1</v>
-      </c>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="103">
+        <v>1</v>
+      </c>
+      <c r="I4" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="76">
+      <c r="A5" s="99">
         <v>4</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="77" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="74">
-        <v>1</v>
-      </c>
-      <c r="I5" s="75" t="s">
+      <c r="H5" s="103">
+        <v>1</v>
+      </c>
+      <c r="I5" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="76">
+      <c r="A6" s="99">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="77" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H6" s="74">
-        <v>1</v>
-      </c>
-      <c r="I6" s="75" t="s">
+      <c r="H6" s="103">
+        <v>1</v>
+      </c>
+      <c r="I6" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="76">
+      <c r="A7" s="99">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73" t="s">
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H7" s="74">
-        <v>1</v>
-      </c>
-      <c r="I7" s="75" t="s">
+      <c r="H7" s="103">
+        <v>1</v>
+      </c>
+      <c r="I7" s="104" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7428,79 +8811,79 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="76">
+      <c r="A9" s="99">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="74">
-        <v>1</v>
-      </c>
-      <c r="I9" s="75" t="s">
+      <c r="H9" s="103">
+        <v>1</v>
+      </c>
+      <c r="I9" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76">
+      <c r="A10" s="99">
         <v>9</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73" t="s">
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="74">
-        <v>1</v>
-      </c>
-      <c r="I10" s="75" t="s">
+      <c r="H10" s="103">
+        <v>1</v>
+      </c>
+      <c r="I10" s="104" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76">
+      <c r="A11" s="99">
         <v>10</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72" t="s">
+      <c r="D11" s="101"/>
+      <c r="E11" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="74">
-        <v>1</v>
-      </c>
-      <c r="I11" s="75" t="s">
+      <c r="H11" s="103">
+        <v>1</v>
+      </c>
+      <c r="I11" s="104" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7657,358 +9040,358 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="92">
+      <c r="A18" s="99">
         <v>17</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="96">
-        <v>1</v>
-      </c>
-      <c r="I18" s="97" t="s">
+      <c r="H18" s="103">
+        <v>1</v>
+      </c>
+      <c r="I18" s="104" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92">
+      <c r="A19" s="99">
         <v>18</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="100" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H19" s="96">
-        <v>1</v>
-      </c>
-      <c r="I19" s="97" t="s">
+      <c r="H19" s="103">
+        <v>1</v>
+      </c>
+      <c r="I19" s="104" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92">
+      <c r="A20" s="99">
         <v>19</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G20" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H20" s="96">
-        <v>1</v>
-      </c>
-      <c r="I20" s="97" t="s">
+      <c r="H20" s="103">
+        <v>1</v>
+      </c>
+      <c r="I20" s="104" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92">
+      <c r="A21" s="99">
         <v>20</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="100" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H21" s="96">
-        <v>1</v>
-      </c>
-      <c r="I21" s="97" t="s">
+      <c r="H21" s="103">
+        <v>1</v>
+      </c>
+      <c r="I21" s="104" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92">
+      <c r="A22" s="99">
         <v>21</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="95" t="s">
+      <c r="G22" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H22" s="96">
-        <v>1</v>
-      </c>
-      <c r="I22" s="97" t="s">
+      <c r="H22" s="103">
+        <v>1</v>
+      </c>
+      <c r="I22" s="104" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="76">
+      <c r="A23" s="99">
         <v>22</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73" t="s">
+      <c r="E23" s="101"/>
+      <c r="F23" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="74">
-        <v>1</v>
-      </c>
-      <c r="I23" s="75" t="s">
+      <c r="H23" s="103">
+        <v>1</v>
+      </c>
+      <c r="I23" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="76">
+      <c r="A24" s="99">
         <v>23</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73" t="s">
+      <c r="E24" s="101"/>
+      <c r="F24" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H24" s="74">
-        <v>1</v>
-      </c>
-      <c r="I24" s="75" t="s">
+      <c r="H24" s="103">
+        <v>1</v>
+      </c>
+      <c r="I24" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="76">
+      <c r="A25" s="99">
         <v>24</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73" t="s">
+      <c r="E25" s="101"/>
+      <c r="F25" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H25" s="74">
-        <v>1</v>
-      </c>
-      <c r="I25" s="75" t="s">
+      <c r="H25" s="103">
+        <v>1</v>
+      </c>
+      <c r="I25" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="76">
+      <c r="A26" s="99">
         <v>25</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73" t="s">
+      <c r="E26" s="101"/>
+      <c r="F26" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H26" s="74">
-        <v>1</v>
-      </c>
-      <c r="I26" s="75" t="s">
+      <c r="H26" s="103">
+        <v>1</v>
+      </c>
+      <c r="I26" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="76">
+      <c r="A27" s="99">
         <v>26</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73" t="s">
+      <c r="E27" s="101"/>
+      <c r="F27" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H27" s="74">
-        <v>1</v>
-      </c>
-      <c r="I27" s="75" t="s">
+      <c r="H27" s="103">
+        <v>1</v>
+      </c>
+      <c r="I27" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="76">
+      <c r="A28" s="99">
         <v>27</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73" t="s">
+      <c r="E28" s="101"/>
+      <c r="F28" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G28" s="73" t="s">
+      <c r="G28" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="74">
-        <v>1</v>
-      </c>
-      <c r="I28" s="75" t="s">
+      <c r="H28" s="103">
+        <v>1</v>
+      </c>
+      <c r="I28" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="76">
+      <c r="A29" s="99">
         <v>28</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73" t="s">
+      <c r="E29" s="101"/>
+      <c r="F29" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="74">
-        <v>1</v>
-      </c>
-      <c r="I29" s="75" t="s">
+      <c r="H29" s="103">
+        <v>1</v>
+      </c>
+      <c r="I29" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="76">
+      <c r="A30" s="99">
         <v>29</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73" t="s">
+      <c r="E30" s="101"/>
+      <c r="F30" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="H30" s="74">
-        <v>1</v>
-      </c>
-      <c r="I30" s="75" t="s">
+      <c r="H30" s="103">
+        <v>1</v>
+      </c>
+      <c r="I30" s="104" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C31:E1048576 D18:E21 C18:C22 C1:E17">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8035,18 +9418,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:E30">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8063,7 +9446,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8133,29 +9516,29 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76">
+      <c r="A3" s="99">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="101"/>
+      <c r="F3" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H3" s="74">
-        <v>1</v>
-      </c>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="103">
+        <v>1</v>
+      </c>
+      <c r="I3" s="104" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8210,110 +9593,110 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92">
+      <c r="A6" s="99">
         <v>5</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="100" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="101" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95" t="s">
+      <c r="E6" s="101"/>
+      <c r="F6" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H6" s="96">
-        <v>1</v>
-      </c>
-      <c r="I6" s="97" t="s">
+      <c r="H6" s="103">
+        <v>1</v>
+      </c>
+      <c r="I6" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92">
+      <c r="A7" s="99">
         <v>6</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="100" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95" t="s">
+      <c r="E7" s="101"/>
+      <c r="F7" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H7" s="96">
-        <v>1</v>
-      </c>
-      <c r="I7" s="97" t="s">
+      <c r="H7" s="103">
+        <v>1</v>
+      </c>
+      <c r="I7" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92">
+      <c r="A8" s="99">
         <v>7</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95" t="s">
+      <c r="E8" s="101"/>
+      <c r="F8" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H8" s="96">
-        <v>1</v>
-      </c>
-      <c r="I8" s="97" t="s">
+      <c r="H8" s="103">
+        <v>1</v>
+      </c>
+      <c r="I8" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76">
+      <c r="A9" s="99">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="100" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H9" s="74">
-        <v>1</v>
-      </c>
-      <c r="I9" s="75" t="s">
+      <c r="H9" s="103">
+        <v>1</v>
+      </c>
+      <c r="I9" s="104" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8468,317 +9851,317 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92">
+      <c r="A16" s="99">
         <v>15</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="100" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="95" t="s">
+      <c r="G16" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H16" s="96">
-        <v>1</v>
-      </c>
-      <c r="I16" s="97" t="s">
+      <c r="H16" s="103">
+        <v>1</v>
+      </c>
+      <c r="I16" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="92">
+      <c r="A17" s="99">
         <v>16</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="100" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G17" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H17" s="96">
-        <v>1</v>
-      </c>
-      <c r="I17" s="97" t="s">
+      <c r="H17" s="103">
+        <v>1</v>
+      </c>
+      <c r="I17" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="92">
+      <c r="A18" s="99">
         <v>17</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H18" s="96">
-        <v>1</v>
-      </c>
-      <c r="I18" s="97" t="s">
+      <c r="H18" s="103">
+        <v>1</v>
+      </c>
+      <c r="I18" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92">
+      <c r="A19" s="99">
         <v>18</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H19" s="96">
-        <v>1</v>
-      </c>
-      <c r="I19" s="97" t="s">
+      <c r="H19" s="103">
+        <v>1</v>
+      </c>
+      <c r="I19" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92">
+      <c r="A20" s="99">
         <v>19</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G20" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H20" s="96">
-        <v>1</v>
-      </c>
-      <c r="I20" s="97" t="s">
+      <c r="H20" s="103">
+        <v>1</v>
+      </c>
+      <c r="I20" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92">
+      <c r="A21" s="99">
         <v>20</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="H21" s="96">
-        <v>1</v>
-      </c>
-      <c r="I21" s="97" t="s">
+      <c r="H21" s="103">
+        <v>1</v>
+      </c>
+      <c r="I21" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92">
+      <c r="A22" s="99">
         <v>21</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="G22" s="95" t="s">
+      <c r="G22" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="H22" s="96">
-        <v>1</v>
-      </c>
-      <c r="I22" s="97" t="s">
+      <c r="H22" s="103">
+        <v>1</v>
+      </c>
+      <c r="I22" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="92">
+      <c r="A23" s="99">
         <v>22</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H23" s="96">
-        <v>1</v>
-      </c>
-      <c r="I23" s="97" t="s">
+      <c r="H23" s="103">
+        <v>1</v>
+      </c>
+      <c r="I23" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92">
+      <c r="A24" s="99">
         <v>23</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="95" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G24" s="95" t="s">
+      <c r="G24" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H24" s="96">
-        <v>1</v>
-      </c>
-      <c r="I24" s="97" t="s">
+      <c r="H24" s="103">
+        <v>1</v>
+      </c>
+      <c r="I24" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="92">
+      <c r="A25" s="99">
         <v>24</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="95" t="s">
+      <c r="G25" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H25" s="96">
-        <v>1</v>
-      </c>
-      <c r="I25" s="97" t="s">
+      <c r="H25" s="103">
+        <v>1</v>
+      </c>
+      <c r="I25" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="92">
+      <c r="A26" s="99">
         <v>25</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G26" s="95" t="s">
+      <c r="G26" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H26" s="96">
-        <v>1</v>
-      </c>
-      <c r="I26" s="97" t="s">
+      <c r="H26" s="103">
+        <v>1</v>
+      </c>
+      <c r="I26" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="92">
+      <c r="A27" s="99">
         <v>26</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="H27" s="96">
-        <v>1</v>
-      </c>
-      <c r="I27" s="97" t="s">
+      <c r="H27" s="103">
+        <v>1</v>
+      </c>
+      <c r="I27" s="104" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D16:E19 C23:E26 C28:E1048576 C1:E15 C16:C22">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F8 F28:F1048576 F10:F26">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8805,23 +10188,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E22">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:E27">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8848,7 +10231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8859,10 +10242,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8934,27 +10320,27 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107">
+      <c r="A3" s="99">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="111">
-        <v>1</v>
-      </c>
-      <c r="I3" s="112" t="s">
+      <c r="H3" s="103">
+        <v>1</v>
+      </c>
+      <c r="I3" s="104" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9084,27 +10470,27 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107">
+      <c r="A9" s="99">
         <v>8</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="H9" s="111">
-        <v>1</v>
-      </c>
-      <c r="I9" s="112" t="s">
+      <c r="H9" s="103">
+        <v>1</v>
+      </c>
+      <c r="I9" s="104" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9159,52 +10545,52 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107">
+      <c r="A12" s="99">
         <v>11</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="100" t="s">
         <v>301</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="H12" s="111">
-        <v>1</v>
-      </c>
-      <c r="I12" s="112" t="s">
+      <c r="H12" s="103">
+        <v>1</v>
+      </c>
+      <c r="I12" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107">
+      <c r="A13" s="99">
         <v>12</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110" t="s">
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="G13" s="110" t="s">
+      <c r="G13" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="H13" s="111">
-        <v>1</v>
-      </c>
-      <c r="I13" s="112" t="s">
+      <c r="H13" s="103">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104" t="s">
         <v>90</v>
       </c>
     </row>
@@ -9259,52 +10645,52 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107">
+      <c r="A16" s="99">
         <v>15</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="G16" s="110" t="s">
+      <c r="G16" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="111">
-        <v>1</v>
-      </c>
-      <c r="I16" s="112" t="s">
+      <c r="H16" s="103">
+        <v>1</v>
+      </c>
+      <c r="I16" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107">
+      <c r="A17" s="99">
         <v>16</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="105" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="H17" s="111">
-        <v>1</v>
-      </c>
-      <c r="I17" s="112" t="s">
+      <c r="H17" s="103">
+        <v>1</v>
+      </c>
+      <c r="I17" s="104" t="s">
         <v>90</v>
       </c>
     </row>
@@ -9411,15 +10797,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C22:E1048576 C1:E2 D3:E18 C3:C21">
-    <cfRule type="cellIs" dxfId="10" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F11 F13:F15 F17:F1048576">
-    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9446,36 +10832,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>"선택"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"필수"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="12-20">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="12-20">
       <formula>NOT(ISERROR(SEARCH("12-20",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9508,229 +10894,311 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K17"/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2017</v>
-      </c>
-      <c r="D4" s="98">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="103">
+        <v>1</v>
+      </c>
+      <c r="I2" s="104" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="99">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B3" s="100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="103">
+        <v>1</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="99">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B4" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="103">
+        <v>1</v>
+      </c>
+      <c r="I4" s="104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="99">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="103">
+        <v>1</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="B6" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="103">
+        <v>1</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="99">
         <v>6</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="B7" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="103">
+        <v>1</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="99">
         <v>7</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B8" s="100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" s="103">
+        <v>1</v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:K4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C9:E1048576 C1:E2 C4:C8 D4:E7">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F2 F4:F1048576">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H2 H4:H1048576">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H2 H4:H1048576">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:E3">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9738,229 +11206,345 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K17"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="26">
-        <v>2017</v>
-      </c>
-      <c r="D4" s="101">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="114">
+        <v>1</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="118">
+        <v>1</v>
+      </c>
+      <c r="I2" s="119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="B3" s="115" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="118">
+        <v>1</v>
+      </c>
+      <c r="I3" s="119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114">
         <v>3</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="B4" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="118">
+        <v>1</v>
+      </c>
+      <c r="I4" s="119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114">
         <v>4</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="B5" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="118">
+        <v>1</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="114">
         <v>5</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="B6" s="115" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="118">
+        <v>1</v>
+      </c>
+      <c r="I6" s="119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="114">
+        <v>6</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="118">
+        <v>1</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="114">
+        <v>7</v>
+      </c>
+      <c r="B8" s="115" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="118">
+        <v>1</v>
+      </c>
+      <c r="I8" s="119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="114">
+        <v>8</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="118">
+        <v>1</v>
+      </c>
+      <c r="I9" s="119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="114">
         <v>9</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B10" s="115" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="118">
+        <v>1</v>
+      </c>
+      <c r="I10" s="119" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:K4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:E2 C4:E1048576">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="12-20">
+      <formula>NOT(ISERROR(SEARCH("12-20",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H2 H4:H1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H2 H4:H1048576">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:E3">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"선택"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"필수"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
